--- a/raw_data/SOL-USD_4h_process.xlsx
+++ b/raw_data/SOL-USD_4h_process.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="196">
   <si>
     <t>Open</t>
   </si>
@@ -58,129 +58,6 @@
     <t>sell_rsi_9</t>
   </si>
   <si>
-    <t>2023-12-27 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-27 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-03 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-03 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-03 09:00:00-03:00</t>
-  </si>
-  <si>
     <t>2024-01-03 13:00:00-03:00</t>
   </si>
   <si>
@@ -599,6 +476,129 @@
   </si>
   <si>
     <t>2024-01-26 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-26 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-02 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-02 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-02 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-02 13:00:00-03:00</t>
   </si>
   <si>
     <t>yes</t>
@@ -1014,19 +1014,19 @@
         <v>14</v>
       </c>
       <c r="B2">
-        <v>110.0149765014648</v>
+        <v>100.4139633178711</v>
       </c>
       <c r="C2">
-        <v>110.0791931152344</v>
+        <v>102.7379989624023</v>
       </c>
       <c r="D2">
-        <v>106.8150939941406</v>
+        <v>96.49385833740234</v>
       </c>
       <c r="E2">
-        <v>107.0416107177734</v>
+        <v>97.53611755371094</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>166885376</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1034,19 +1034,19 @@
         <v>15</v>
       </c>
       <c r="B3">
-        <v>107.022705078125</v>
+        <v>97.56606292724609</v>
       </c>
       <c r="C3">
-        <v>109.420654296875</v>
+        <v>100.2665863037109</v>
       </c>
       <c r="D3">
-        <v>103.4293441772461</v>
+        <v>97.50959014892578</v>
       </c>
       <c r="E3">
-        <v>104.5995941162109</v>
+        <v>98.59154510498048</v>
       </c>
       <c r="F3">
-        <v>137456640</v>
+        <v>127233024</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -1054,19 +1054,19 @@
         <v>16</v>
       </c>
       <c r="B4">
-        <v>104.5941925048828</v>
+        <v>98.58697509765624</v>
       </c>
       <c r="C4">
-        <v>106.2569885253906</v>
+        <v>101.8100738525391</v>
       </c>
       <c r="D4">
-        <v>102.9369735717773</v>
+        <v>98.35505676269533</v>
       </c>
       <c r="E4">
-        <v>105.9831848144531</v>
+        <v>101.1613998413086</v>
       </c>
       <c r="F4">
-        <v>164820992</v>
+        <v>189121536</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -1074,19 +1074,19 @@
         <v>17</v>
       </c>
       <c r="B5">
-        <v>105.9842681884766</v>
+        <v>101.2126541137695</v>
       </c>
       <c r="C5">
-        <v>106.0918121337891</v>
+        <v>101.5126113891602</v>
       </c>
       <c r="D5">
-        <v>103.5267562866211</v>
+        <v>99.1156005859375</v>
       </c>
       <c r="E5">
-        <v>105.0084915161133</v>
+        <v>99.1156005859375</v>
       </c>
       <c r="F5">
-        <v>27126784</v>
+        <v>26587648</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -1094,19 +1094,19 @@
         <v>18</v>
       </c>
       <c r="B6">
-        <v>104.9947128295898</v>
+        <v>99.04307556152344</v>
       </c>
       <c r="C6">
-        <v>105.0276260375977</v>
+        <v>99.26647186279295</v>
       </c>
       <c r="D6">
-        <v>97.66864776611328</v>
+        <v>97.10832977294922</v>
       </c>
       <c r="E6">
-        <v>99.79979705810548</v>
+        <v>98.41212463378906</v>
       </c>
       <c r="F6">
-        <v>310580736</v>
+        <v>37313024</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1114,19 +1114,19 @@
         <v>19</v>
       </c>
       <c r="B7">
-        <v>99.7654266357422</v>
+        <v>98.42371368408205</v>
       </c>
       <c r="C7">
-        <v>101.543098449707</v>
+        <v>104.2337036132812</v>
       </c>
       <c r="D7">
-        <v>98.85652923583984</v>
+        <v>98.42371368408205</v>
       </c>
       <c r="E7">
-        <v>101.4852676391602</v>
+        <v>103.9684906005859</v>
       </c>
       <c r="F7">
-        <v>21297152</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -1134,19 +1134,19 @@
         <v>20</v>
       </c>
       <c r="B8">
-        <v>101.4192810058594</v>
+        <v>103.9409103393555</v>
       </c>
       <c r="C8">
-        <v>103.8638763427734</v>
+        <v>106.2971343994141</v>
       </c>
       <c r="D8">
-        <v>99.29167175292967</v>
+        <v>102.0066757202148</v>
       </c>
       <c r="E8">
-        <v>102.0878295898438</v>
+        <v>105.6609420776367</v>
       </c>
       <c r="F8">
-        <v>171276288</v>
+        <v>96046080</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -1154,19 +1154,19 @@
         <v>21</v>
       </c>
       <c r="B9">
-        <v>102.0692825317383</v>
+        <v>105.6354370117188</v>
       </c>
       <c r="C9">
-        <v>105.874137878418</v>
+        <v>107.9824676513672</v>
       </c>
       <c r="D9">
-        <v>100.0555114746094</v>
+        <v>104.7410354614258</v>
       </c>
       <c r="E9">
-        <v>104.8806610107422</v>
+        <v>105.0719985961914</v>
       </c>
       <c r="F9">
-        <v>211846656</v>
+        <v>146927616</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -1174,19 +1174,19 @@
         <v>22</v>
       </c>
       <c r="B10">
-        <v>104.9028854370117</v>
+        <v>105.0520095825195</v>
       </c>
       <c r="C10">
-        <v>108.511474609375</v>
+        <v>105.2354278564453</v>
       </c>
       <c r="D10">
-        <v>104.4334716796875</v>
+        <v>100.7729339599609</v>
       </c>
       <c r="E10">
-        <v>105.089225769043</v>
+        <v>100.9555435180664</v>
       </c>
       <c r="F10">
-        <v>140940800</v>
+        <v>159729152</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1194,22 +1194,22 @@
         <v>23</v>
       </c>
       <c r="B11">
-        <v>105.1183090209961</v>
+        <v>100.9739074707031</v>
       </c>
       <c r="C11">
-        <v>109.6711196899414</v>
+        <v>101.9856033325195</v>
       </c>
       <c r="D11">
-        <v>105.1183090209961</v>
+        <v>100.4573516845703</v>
       </c>
       <c r="E11">
-        <v>107.6570053100586</v>
+        <v>101.2955017089844</v>
       </c>
       <c r="F11">
-        <v>315218944</v>
+        <v>63558912</v>
       </c>
       <c r="L11">
-        <v>61.96191822519793</v>
+        <v>54.19439251305433</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1217,22 +1217,22 @@
         <v>24</v>
       </c>
       <c r="B12">
-        <v>107.6215133666992</v>
+        <v>101.293586730957</v>
       </c>
       <c r="C12">
-        <v>109.5756301879883</v>
+        <v>102.8760070800781</v>
       </c>
       <c r="D12">
-        <v>105.6318588256836</v>
+        <v>99.75384521484376</v>
       </c>
       <c r="E12">
-        <v>105.9814300537109</v>
+        <v>99.76820373535156</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>108649728</v>
       </c>
       <c r="L12">
-        <v>53.14682886943348</v>
+        <v>47.43583383206181</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1240,22 +1240,22 @@
         <v>25</v>
       </c>
       <c r="B13">
-        <v>106.0253067016602</v>
+        <v>99.76514434814452</v>
       </c>
       <c r="C13">
-        <v>107.0932159423828</v>
+        <v>101.3372650146484</v>
       </c>
       <c r="D13">
-        <v>103.0715942382812</v>
+        <v>97.5310516357422</v>
       </c>
       <c r="E13">
-        <v>106.1960220336914</v>
+        <v>97.87200164794922</v>
       </c>
       <c r="F13">
-        <v>326180864</v>
+        <v>39989760</v>
       </c>
       <c r="L13">
-        <v>54.08791835175478</v>
+        <v>40.39891136586773</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1263,22 +1263,22 @@
         <v>26</v>
       </c>
       <c r="B14">
-        <v>106.1294479370117</v>
+        <v>98.02615356445312</v>
       </c>
       <c r="C14">
-        <v>106.3080062866211</v>
+        <v>98.68316650390624</v>
       </c>
       <c r="D14">
-        <v>103.4907455444336</v>
+        <v>95.94272613525391</v>
       </c>
       <c r="E14">
-        <v>106.3080062866211</v>
+        <v>98.03083801269533</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>45636864</v>
       </c>
       <c r="L14">
-        <v>54.62300443978658</v>
+        <v>41.22062227349287</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1286,22 +1286,22 @@
         <v>27</v>
       </c>
       <c r="B15">
-        <v>106.2985000610352</v>
+        <v>98.01723480224609</v>
       </c>
       <c r="C15">
-        <v>107.3282241821289</v>
+        <v>100.4575805664062</v>
       </c>
       <c r="D15">
-        <v>103.2053070068359</v>
+        <v>98.01723480224609</v>
       </c>
       <c r="E15">
-        <v>103.576774597168</v>
+        <v>99.98796844482422</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>21955072</v>
       </c>
       <c r="L15">
-        <v>41.38797384208197</v>
+        <v>50.65166509173893</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1309,1088 +1309,1085 @@
         <v>28</v>
       </c>
       <c r="B16">
-        <v>103.5875854492188</v>
+        <v>99.9879913330078</v>
       </c>
       <c r="C16">
-        <v>104.789665222168</v>
+        <v>100.0374069213867</v>
       </c>
       <c r="D16">
-        <v>103.4650573730469</v>
+        <v>98.09851837158205</v>
       </c>
       <c r="E16">
-        <v>103.4733123779297</v>
+        <v>98.82679748535156</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>40.96497630085342</v>
+        <v>45.75192521409181</v>
       </c>
       <c r="M16">
-        <v>42.02453820753835</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>48.03035202368388</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B17">
-        <v>103.4734802246094</v>
+        <v>98.83023071289062</v>
       </c>
       <c r="C17">
-        <v>103.4734802246094</v>
+        <v>98.89959716796876</v>
       </c>
       <c r="D17">
-        <v>101.0681228637695</v>
+        <v>92.02278900146484</v>
       </c>
       <c r="E17">
-        <v>102.1789169311523</v>
+        <v>94.35413360595705</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>332323328</v>
       </c>
       <c r="L17">
-        <v>35.81332944961091</v>
+        <v>32.23825222560545</v>
       </c>
       <c r="M17">
-        <v>38.04728379733901</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>36.63208852398884</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B18">
-        <v>102.1816711425781</v>
+        <v>94.37487030029295</v>
       </c>
       <c r="C18">
-        <v>104.2048034667969</v>
+        <v>95.64556884765624</v>
       </c>
       <c r="D18">
-        <v>102.1797256469727</v>
+        <v>94.00751495361328</v>
       </c>
       <c r="E18">
-        <v>103.9622650146484</v>
+        <v>94.78232574462891</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>39955712</v>
       </c>
       <c r="L18">
-        <v>46.28368144533047</v>
+        <v>34.32741879601093</v>
       </c>
       <c r="M18">
-        <v>45.67560770114454</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>38.14548065065517</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B19">
-        <v>103.9668197631836</v>
+        <v>94.76769256591795</v>
       </c>
       <c r="C19">
-        <v>104.5681991577148</v>
+        <v>96.29456329345705</v>
       </c>
       <c r="D19">
-        <v>102.8592300415039</v>
+        <v>93.2353057861328</v>
       </c>
       <c r="E19">
-        <v>103.4143295288086</v>
+        <v>95.36878967285156</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>43.8132773173947</v>
+        <v>37.30573904213711</v>
       </c>
       <c r="M19">
-        <v>43.88752399932984</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>40.25025448090953</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B20">
-        <v>103.4135360717773</v>
+        <v>95.34529876708984</v>
       </c>
       <c r="C20">
-        <v>104.140754699707</v>
+        <v>97.06942749023438</v>
       </c>
       <c r="D20">
-        <v>101.513053894043</v>
+        <v>94.78286743164062</v>
       </c>
       <c r="E20">
-        <v>101.8488388061523</v>
+        <v>95.11660003662109</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>37.39741184798501</v>
+        <v>36.50484282368329</v>
       </c>
       <c r="M20">
-        <v>39.16952766502038</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>39.62582566447234</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B21">
-        <v>101.8441772460938</v>
+        <v>95.10139465332033</v>
       </c>
       <c r="C21">
-        <v>102.8429107666016</v>
+        <v>95.48077392578124</v>
       </c>
       <c r="D21">
-        <v>99.8864288330078</v>
+        <v>92.70223999023438</v>
       </c>
       <c r="E21">
-        <v>100.5050659179688</v>
+        <v>93.74457550048828</v>
       </c>
       <c r="F21">
-        <v>25179136</v>
+        <v>22697216</v>
       </c>
       <c r="H21">
-        <v>104.0538814544678</v>
+        <v>98.9810749053955</v>
       </c>
       <c r="L21">
-        <v>32.76424844114847</v>
+        <v>32.26526167847793</v>
       </c>
       <c r="M21">
-        <v>35.62890938357681</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>36.32418704514513</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B22">
-        <v>100.5342407226562</v>
+        <v>93.8603515625</v>
       </c>
       <c r="C22">
-        <v>104.7229232788086</v>
+        <v>96.28854370117188</v>
       </c>
       <c r="D22">
-        <v>100.5342407226562</v>
+        <v>92.23455810546876</v>
       </c>
       <c r="E22">
-        <v>103.8898086547852</v>
+        <v>92.87386322021484</v>
       </c>
       <c r="F22">
-        <v>87460352</v>
+        <v>147343360</v>
       </c>
       <c r="G22">
-        <v>104.0460684640067</v>
+        <v>98.69025530133929</v>
       </c>
       <c r="H22">
-        <v>103.8962913513184</v>
+        <v>98.74796218872071</v>
       </c>
       <c r="L22">
-        <v>50.23502393284665</v>
+        <v>29.79479928420115</v>
       </c>
       <c r="M22">
-        <v>48.30449490296077</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>34.36717916935632</v>
+      </c>
+      <c r="N22" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B23">
-        <v>103.8915100097656</v>
+        <v>92.87892913818359</v>
       </c>
       <c r="C23">
-        <v>104.9466400146484</v>
+        <v>95.18532562255859</v>
       </c>
       <c r="D23">
-        <v>103.4910507202148</v>
+        <v>92.87892913818359</v>
       </c>
       <c r="E23">
-        <v>104.1232070922852</v>
+        <v>95.01216888427734</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>53857280</v>
       </c>
       <c r="G23">
-        <v>104.0530810665775</v>
+        <v>98.35588380887911</v>
       </c>
       <c r="H23">
-        <v>103.8724720001221</v>
+        <v>98.56899337768554</v>
       </c>
       <c r="L23">
-        <v>51.21834035573761</v>
+        <v>42.05288173066316</v>
       </c>
       <c r="M23">
-        <v>49.04953944773921</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>42.55269627073557</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B24">
-        <v>104.1334381103516</v>
+        <v>95.0321044921875</v>
       </c>
       <c r="C24">
-        <v>105.133544921875</v>
+        <v>95.4990692138672</v>
       </c>
       <c r="D24">
-        <v>102.4373016357422</v>
+        <v>93.22934722900391</v>
       </c>
       <c r="E24">
-        <v>102.5676345825195</v>
+        <v>94.6377410888672</v>
       </c>
       <c r="F24">
-        <v>14423296</v>
+        <v>3220480</v>
       </c>
       <c r="G24">
-        <v>103.9180404771177</v>
+        <v>98.01787083433257</v>
       </c>
       <c r="H24">
-        <v>103.7016944885254</v>
+        <v>98.24281044006348</v>
       </c>
       <c r="L24">
-        <v>44.60928229845249</v>
+        <v>40.65454061435854</v>
       </c>
       <c r="M24">
-        <v>44.45130634607849</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>41.57492009516785</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B25">
-        <v>102.5621643066406</v>
+        <v>94.63909912109376</v>
       </c>
       <c r="C25">
-        <v>104.3371200561523</v>
+        <v>96.69239807128906</v>
       </c>
       <c r="D25">
-        <v>102.4174652099609</v>
+        <v>93.80590057373048</v>
       </c>
       <c r="E25">
-        <v>103.7877197265625</v>
+        <v>94.19566345214844</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>57904128</v>
       </c>
       <c r="G25">
-        <v>103.9061931361581</v>
+        <v>97.6703974359522</v>
       </c>
       <c r="H25">
-        <v>103.6406558990479</v>
+        <v>97.99681358337402</v>
       </c>
       <c r="L25">
-        <v>50.27132751072207</v>
+        <v>38.93489346497538</v>
       </c>
       <c r="M25">
-        <v>48.52716140381285</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>40.39472931316361</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B26">
-        <v>103.7875137329102</v>
+        <v>94.16520690917967</v>
       </c>
       <c r="C26">
-        <v>104.9080505371094</v>
+        <v>94.99742889404295</v>
       </c>
       <c r="D26">
-        <v>100.2690277099609</v>
+        <v>93.41010284423828</v>
       </c>
       <c r="E26">
-        <v>101.4513702392578</v>
+        <v>94.80582427978516</v>
       </c>
       <c r="F26">
-        <v>129617280</v>
+        <v>14725632</v>
       </c>
       <c r="G26">
-        <v>103.6830274182581</v>
+        <v>97.40998169448245</v>
       </c>
       <c r="H26">
-        <v>103.7232345581055</v>
+        <v>97.81649856567383</v>
       </c>
       <c r="L26">
-        <v>41.19892318436222</v>
+        <v>42.69842162489631</v>
       </c>
       <c r="M26">
-        <v>42.14939537383126</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>42.80789603937777</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B27">
-        <v>101.512809753418</v>
+        <v>94.80001068115234</v>
       </c>
       <c r="C27">
-        <v>104.5294799804688</v>
+        <v>95.21267700195312</v>
       </c>
       <c r="D27">
-        <v>101.512809753418</v>
+        <v>88.22345733642578</v>
       </c>
       <c r="E27">
-        <v>102.8871307373047</v>
+        <v>89.26911163330078</v>
       </c>
       <c r="F27">
-        <v>130156800</v>
+        <v>303465344</v>
       </c>
       <c r="G27">
-        <v>103.610673174535</v>
+        <v>96.66990259801139</v>
       </c>
       <c r="H27">
-        <v>103.7933277130127</v>
+        <v>97.08152961730957</v>
       </c>
       <c r="L27">
-        <v>47.72153570219443</v>
+        <v>26.20883072749535</v>
       </c>
       <c r="M27">
-        <v>46.77852632519812</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>30.67269560580641</v>
+      </c>
+      <c r="N27" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B28">
-        <v>102.8955383300781</v>
+        <v>89.27817535400391</v>
       </c>
       <c r="C28">
-        <v>103.8406677246094</v>
+        <v>90.67942047119141</v>
       </c>
       <c r="D28">
-        <v>101.6856155395508</v>
+        <v>85.64669799804688</v>
       </c>
       <c r="E28">
-        <v>102.6120452880859</v>
+        <v>87.474365234375</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>425684736</v>
       </c>
       <c r="G28">
-        <v>103.5198888212215</v>
+        <v>95.83394465586262</v>
       </c>
       <c r="H28">
-        <v>103.8195384979248</v>
+        <v>96.17220077514648</v>
       </c>
       <c r="L28">
-        <v>46.60717141002711</v>
+        <v>22.97343358466343</v>
       </c>
       <c r="M28">
-        <v>46.01873119407821</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>27.91066177266304</v>
+      </c>
+      <c r="N28" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B29">
-        <v>102.6151657104492</v>
+        <v>87.47711181640625</v>
       </c>
       <c r="C29">
-        <v>104.7244720458984</v>
+        <v>90.47542572021484</v>
       </c>
       <c r="D29">
-        <v>102.0915222167969</v>
+        <v>87.14730072021484</v>
       </c>
       <c r="E29">
-        <v>104.3065719604492</v>
+        <v>89.79023742675781</v>
       </c>
       <c r="F29">
-        <v>56731904</v>
+        <v>181261312</v>
       </c>
       <c r="G29">
-        <v>103.5914054702422</v>
+        <v>95.284516725944</v>
       </c>
       <c r="H29">
-        <v>103.7908340454102</v>
+        <v>95.40811271667481</v>
       </c>
       <c r="L29">
-        <v>54.04400793492972</v>
+        <v>34.6790997232265</v>
       </c>
       <c r="M29">
-        <v>51.26942812902051</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>35.92818549298578</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B30">
-        <v>104.3946685791016</v>
+        <v>89.79701995849609</v>
       </c>
       <c r="C30">
-        <v>106.1664657592773</v>
+        <v>91.92881011962891</v>
       </c>
       <c r="D30">
-        <v>104.1089324951172</v>
+        <v>89.26554870605469</v>
       </c>
       <c r="E30">
-        <v>106.0872573852539</v>
+        <v>91.92881011962891</v>
       </c>
       <c r="F30">
-        <v>123569152</v>
+        <v>133611776</v>
       </c>
       <c r="G30">
-        <v>103.8183010988796</v>
+        <v>94.97945248900626</v>
       </c>
       <c r="H30">
-        <v>103.8407356262207</v>
+        <v>94.95677604675294</v>
       </c>
       <c r="L30">
-        <v>60.54139000344193</v>
+        <v>43.58560768134309</v>
       </c>
       <c r="M30">
-        <v>56.10163668930132</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>42.30893748510713</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B31">
-        <v>106.0771713256836</v>
+        <v>91.93854522705078</v>
       </c>
       <c r="C31">
-        <v>109.0085220336914</v>
+        <v>95.41043853759766</v>
       </c>
       <c r="D31">
-        <v>106.0419006347656</v>
+        <v>91.93854522705078</v>
       </c>
       <c r="E31">
-        <v>108.7751998901367</v>
+        <v>94.5491180419922</v>
       </c>
       <c r="F31">
-        <v>302625024</v>
+        <v>630469120</v>
       </c>
       <c r="G31">
-        <v>104.2689282617211</v>
+        <v>94.94033117564135</v>
       </c>
       <c r="H31">
-        <v>103.8966453552246</v>
+        <v>94.61945686340331</v>
       </c>
       <c r="I31">
-        <v>104.0521858215332</v>
+        <v>96.80528004964192</v>
       </c>
       <c r="L31">
-        <v>68.18095590525998</v>
+        <v>52.51103189459874</v>
       </c>
       <c r="M31">
-        <v>62.19564992146815</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>49.00944333654579</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B32">
-        <v>108.7813034057617</v>
+        <v>94.57540893554688</v>
       </c>
       <c r="C32">
-        <v>109.4933929443359</v>
+        <v>99.76187133789062</v>
       </c>
       <c r="D32">
-        <v>107.5031814575195</v>
+        <v>94.15090942382812</v>
       </c>
       <c r="E32">
-        <v>109.4933929443359</v>
+        <v>99.39550018310548</v>
       </c>
       <c r="F32">
-        <v>77912448</v>
+        <v>699635968</v>
       </c>
       <c r="G32">
-        <v>104.7438795965043</v>
+        <v>95.34534653995627</v>
       </c>
       <c r="H32">
-        <v>104.0722434997559</v>
+        <v>94.60082168579102</v>
       </c>
       <c r="I32">
-        <v>104.133911895752</v>
+        <v>96.86725947062175</v>
       </c>
       <c r="L32">
-        <v>69.93088820472438</v>
+        <v>64.2724570740515</v>
       </c>
       <c r="M32">
-        <v>63.64773624248904</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15">
+        <v>58.58934698924575</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B33">
-        <v>109.5490646362305</v>
+        <v>99.40914916992188</v>
       </c>
       <c r="C33">
-        <v>112.9365692138672</v>
+        <v>99.40914916992188</v>
       </c>
       <c r="D33">
-        <v>109.0746307373047</v>
+        <v>96.72657012939452</v>
       </c>
       <c r="E33">
-        <v>111.4423370361328</v>
+        <v>97.78946685791016</v>
       </c>
       <c r="F33">
-        <v>435386880</v>
+        <v>97280512</v>
       </c>
       <c r="G33">
-        <v>105.3528302728342</v>
+        <v>95.56753929613389</v>
       </c>
       <c r="H33">
-        <v>104.3345592498779</v>
+        <v>94.59669494628906</v>
       </c>
       <c r="I33">
-        <v>104.362003326416</v>
+        <v>96.84052352905273</v>
       </c>
       <c r="L33">
-        <v>74.25364306119974</v>
+        <v>58.83962211920908</v>
       </c>
       <c r="M33">
-        <v>67.31651771585696</v>
-      </c>
-      <c r="O33" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15">
+        <v>54.90782650497582</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B34">
-        <v>111.4414443969727</v>
+        <v>97.81603240966795</v>
       </c>
       <c r="C34">
-        <v>114.5557479858398</v>
+        <v>99.67715454101562</v>
       </c>
       <c r="D34">
-        <v>111.1670074462891</v>
+        <v>95.89379119873048</v>
       </c>
       <c r="E34">
-        <v>114.5557479858398</v>
+        <v>99.3494873046875</v>
       </c>
       <c r="F34">
-        <v>324146432</v>
+        <v>32189184</v>
       </c>
       <c r="G34">
-        <v>106.1894591558347</v>
+        <v>95.91135275145693</v>
       </c>
       <c r="H34">
-        <v>104.7469463348389</v>
+        <v>94.66262741088867</v>
       </c>
       <c r="I34">
-        <v>104.6477554321289</v>
+        <v>96.78012644449869</v>
       </c>
       <c r="L34">
-        <v>79.53979438642928</v>
+        <v>62.32010537518954</v>
       </c>
       <c r="M34">
-        <v>72.15168075969251</v>
-      </c>
-      <c r="O34" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15">
+        <v>57.68896510604105</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B35">
-        <v>114.5170364379883</v>
+        <v>99.41374206542967</v>
       </c>
       <c r="C35">
-        <v>116.8622589111328</v>
+        <v>103.7961654663086</v>
       </c>
       <c r="D35">
-        <v>113.3862228393555</v>
+        <v>99.41374206542967</v>
       </c>
       <c r="E35">
-        <v>113.9182662963867</v>
+        <v>101.8500900268555</v>
       </c>
       <c r="F35">
-        <v>487504896</v>
+        <v>293177856</v>
       </c>
       <c r="G35">
-        <v>106.892077986794</v>
+        <v>96.45123795831134</v>
       </c>
       <c r="H35">
-        <v>105.2640209197998</v>
+        <v>94.75573348999023</v>
       </c>
       <c r="I35">
-        <v>104.9447479248047</v>
+        <v>96.8712760925293</v>
       </c>
       <c r="L35">
-        <v>75.94790153326439</v>
+        <v>67.30552276952859</v>
       </c>
       <c r="M35">
-        <v>69.87236652218552</v>
-      </c>
-      <c r="O35" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15">
+        <v>61.76028479267884</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B36">
-        <v>113.8422775268555</v>
+        <v>101.8520202636719</v>
       </c>
       <c r="C36">
-        <v>114.2899627685547</v>
+        <v>102.5868072509766</v>
       </c>
       <c r="D36">
-        <v>108.7490921020508</v>
+        <v>99.98487091064452</v>
       </c>
       <c r="E36">
-        <v>109.7521362304688</v>
+        <v>101.9787445068359</v>
       </c>
       <c r="F36">
-        <v>379919360</v>
+        <v>50465280</v>
       </c>
       <c r="G36">
-        <v>107.1520832816735</v>
+        <v>96.95373855363175</v>
       </c>
       <c r="H36">
-        <v>105.5779621124268</v>
+        <v>94.91333084106445</v>
       </c>
       <c r="I36">
-        <v>105.2764925638835</v>
+        <v>96.99016342163085</v>
       </c>
       <c r="L36">
-        <v>57.01734009643215</v>
+        <v>67.55399951606515</v>
       </c>
       <c r="M36">
-        <v>57.16303225971451</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15">
+        <v>61.96307726463834</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B37">
-        <v>109.76416015625</v>
+        <v>101.9862060546875</v>
       </c>
       <c r="C37">
-        <v>110.3910598754883</v>
+        <v>102.2774047851562</v>
       </c>
       <c r="D37">
-        <v>107.1065979003906</v>
+        <v>98.30861663818359</v>
       </c>
       <c r="E37">
-        <v>107.522216796875</v>
+        <v>99.99766540527344</v>
       </c>
       <c r="F37">
-        <v>86872064</v>
+        <v>76162304</v>
       </c>
       <c r="G37">
-        <v>107.1857317830554</v>
+        <v>97.23045917650826</v>
       </c>
       <c r="H37">
-        <v>105.8451271057129</v>
+        <v>95.19550743103028</v>
       </c>
       <c r="I37">
-        <v>105.477724202474</v>
+        <v>96.85780258178711</v>
       </c>
       <c r="L37">
-        <v>49.57634391059459</v>
+        <v>59.6948165168165</v>
       </c>
       <c r="M37">
-        <v>51.73838787588638</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15">
+        <v>56.95436821344719</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B38">
-        <v>107.5261764526367</v>
+        <v>99.94858551025391</v>
       </c>
       <c r="C38">
-        <v>108.798942565918</v>
+        <v>101.1668853759766</v>
       </c>
       <c r="D38">
-        <v>106.3889846801758</v>
+        <v>98.78969573974609</v>
       </c>
       <c r="E38">
-        <v>106.6051635742188</v>
+        <v>99.3579559326172</v>
       </c>
       <c r="F38">
-        <v>61993472</v>
+        <v>0</v>
       </c>
       <c r="G38">
-        <v>107.1329528549794</v>
+        <v>97.42386797251817</v>
       </c>
       <c r="H38">
-        <v>105.9772720336914</v>
+        <v>95.42428894042969</v>
       </c>
       <c r="I38">
-        <v>105.6283020019531</v>
+        <v>96.64770304361979</v>
       </c>
       <c r="L38">
-        <v>46.75344309305646</v>
+        <v>57.27423817216106</v>
       </c>
       <c r="M38">
-        <v>49.65159534136858</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15">
+        <v>55.39716247500726</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B39">
-        <v>106.6165313720703</v>
+        <v>99.35710144042967</v>
       </c>
       <c r="C39">
-        <v>108.5734558105469</v>
+        <v>102.0872268676758</v>
       </c>
       <c r="D39">
-        <v>106.6165313720703</v>
+        <v>96.26350402832033</v>
       </c>
       <c r="E39">
-        <v>108.025764465332</v>
+        <v>99.3953857421875</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>624676864</v>
       </c>
       <c r="G39">
-        <v>107.2141175468296</v>
+        <v>97.60309686066992</v>
       </c>
       <c r="H39">
-        <v>106.2078437805176</v>
+        <v>95.62561874389648</v>
       </c>
       <c r="I39">
-        <v>105.7331387837728</v>
+        <v>96.45848261515299</v>
       </c>
       <c r="L39">
-        <v>51.56021379231213</v>
+        <v>57.38797524604246</v>
       </c>
       <c r="M39">
-        <v>52.82578785166959</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15">
+        <v>55.47387272524121</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B40">
-        <v>108.034912109375</v>
+        <v>99.38423919677734</v>
       </c>
       <c r="C40">
-        <v>109.8480911254883</v>
+        <v>100.0294952392578</v>
       </c>
       <c r="D40">
-        <v>107.4968414306641</v>
+        <v>97.66038513183594</v>
       </c>
       <c r="E40">
-        <v>107.832405090332</v>
+        <v>99.71912384033205</v>
       </c>
       <c r="F40">
-        <v>54688256</v>
+        <v>0</v>
       </c>
       <c r="G40">
-        <v>107.2703255053298</v>
+        <v>97.79546294973011</v>
       </c>
       <c r="H40">
-        <v>106.5070220947266</v>
+        <v>95.85574493408204</v>
       </c>
       <c r="I40">
-        <v>105.8245780944824</v>
+        <v>96.41726862589518</v>
       </c>
       <c r="L40">
-        <v>50.85720614908709</v>
+        <v>58.46386321877448</v>
       </c>
       <c r="M40">
-        <v>52.34208747931228</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15">
+        <v>56.17591719630011</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B41">
-        <v>107.873405456543</v>
+        <v>99.71906280517578</v>
       </c>
       <c r="C41">
-        <v>109.3379135131836</v>
+        <v>100.3056106567383</v>
       </c>
       <c r="D41">
-        <v>103.1745681762695</v>
+        <v>98.19692230224609</v>
       </c>
       <c r="E41">
-        <v>103.234016418457</v>
+        <v>98.19908142089844</v>
       </c>
       <c r="F41">
-        <v>131139840</v>
+        <v>0</v>
       </c>
       <c r="G41">
-        <v>106.9033883156141</v>
+        <v>97.83215553801813</v>
       </c>
       <c r="H41">
-        <v>106.643469619751</v>
+        <v>96.07847023010255</v>
       </c>
       <c r="I41">
-        <v>105.677145131429</v>
+        <v>96.31405461629232</v>
       </c>
       <c r="L41">
-        <v>37.26386536469155</v>
+        <v>51.58421646251705</v>
       </c>
       <c r="M41">
-        <v>42.39918696731021</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15">
+        <v>52.02797051104844</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B42">
-        <v>103.2308578491211</v>
+        <v>98.20261383056641</v>
       </c>
       <c r="C42">
-        <v>103.4482116699219</v>
+        <v>98.22606658935548</v>
       </c>
       <c r="D42">
-        <v>92.92366790771484</v>
+        <v>96.45053100585938</v>
       </c>
       <c r="E42">
-        <v>100.3274536132812</v>
+        <v>97.50374603271484</v>
       </c>
       <c r="F42">
-        <v>1733505792</v>
+        <v>0</v>
       </c>
       <c r="G42">
-        <v>106.3055760699475</v>
+        <v>97.8023001284451</v>
       </c>
       <c r="H42">
-        <v>106.4653518676758</v>
+        <v>96.30996437072756</v>
       </c>
       <c r="I42">
-        <v>105.4886792500814</v>
+        <v>96.23857269287109</v>
       </c>
       <c r="L42">
-        <v>31.31248394929113</v>
+        <v>48.63876214883403</v>
       </c>
       <c r="M42">
-        <v>37.54444192793483</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15">
+        <v>50.20186383830372</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B43">
-        <v>100.4139633178711</v>
+        <v>97.51360321044922</v>
       </c>
       <c r="C43">
-        <v>102.7379989624023</v>
+        <v>97.53481292724609</v>
       </c>
       <c r="D43">
-        <v>96.49385833740234</v>
+        <v>92.56326293945312</v>
       </c>
       <c r="E43">
-        <v>97.53611755371094</v>
+        <v>94.48298645019533</v>
       </c>
       <c r="F43">
-        <v>478813184</v>
+        <v>128688896</v>
       </c>
       <c r="G43">
-        <v>105.5083525684715</v>
+        <v>97.50054433951328</v>
       </c>
       <c r="H43">
-        <v>106.1359973907471</v>
+        <v>96.28350524902345</v>
       </c>
       <c r="I43">
-        <v>105.2000157674154</v>
+        <v>96.12560551961263</v>
       </c>
       <c r="L43">
-        <v>26.70460575830057</v>
+        <v>38.02672563950295</v>
       </c>
       <c r="M43">
-        <v>33.56917198767385</v>
-      </c>
-      <c r="N43" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15">
+        <v>43.12102309278349</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B44">
-        <v>97.56606292724609</v>
+        <v>94.48133087158205</v>
       </c>
       <c r="C44">
-        <v>100.2665863037109</v>
+        <v>98.06941986083984</v>
       </c>
       <c r="D44">
-        <v>97.50959014892578</v>
+        <v>94.14076995849609</v>
       </c>
       <c r="E44">
-        <v>98.59154510498048</v>
+        <v>96.5208740234375</v>
       </c>
       <c r="F44">
-        <v>127233024</v>
+        <v>224610560</v>
       </c>
       <c r="G44">
-        <v>104.8795518899723</v>
+        <v>97.41148340168822</v>
       </c>
       <c r="H44">
-        <v>105.9371929168701</v>
+        <v>96.37766189575197</v>
       </c>
       <c r="I44">
-        <v>104.942800394694</v>
+        <v>96.07527338663736</v>
       </c>
       <c r="L44">
-        <v>31.02238530601985</v>
+        <v>46.83096048401018</v>
       </c>
       <c r="M44">
-        <v>36.31491379744313</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15">
+        <v>48.40787498677858</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B45">
-        <v>98.58697509765624</v>
+        <v>96.49250793457033</v>
       </c>
       <c r="C45">
-        <v>101.8100738525391</v>
+        <v>105.0823745727539</v>
       </c>
       <c r="D45">
-        <v>98.35505676269533</v>
+        <v>94.580322265625</v>
       </c>
       <c r="E45">
-        <v>101.1613998413086</v>
+        <v>102.0330200195312</v>
       </c>
       <c r="F45">
-        <v>189121536</v>
+        <v>745239808</v>
       </c>
       <c r="G45">
-        <v>104.5415380673665</v>
+        <v>97.8316230942194</v>
       </c>
       <c r="H45">
-        <v>105.8058769226074</v>
+        <v>96.7695297241211</v>
       </c>
       <c r="I45">
-        <v>104.862287902832</v>
+        <v>96.14344177246093</v>
       </c>
       <c r="L45">
-        <v>40.60656397020485</v>
+        <v>62.87842910672429</v>
       </c>
       <c r="M45">
-        <v>42.54226507020662</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15">
+        <v>59.40029711579425</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B46">
-        <v>101.2126541137695</v>
+        <v>102.1036529541016</v>
       </c>
       <c r="C46">
-        <v>101.5126113891602</v>
+        <v>102.1036529541016</v>
       </c>
       <c r="D46">
-        <v>99.1156005859375</v>
+        <v>99.37142181396484</v>
       </c>
       <c r="E46">
-        <v>99.1156005859375</v>
+        <v>100.1213073730469</v>
       </c>
       <c r="F46">
-        <v>26587648</v>
+        <v>210730496</v>
       </c>
       <c r="G46">
-        <v>104.0482710236002</v>
+        <v>98.03977621047645</v>
       </c>
       <c r="H46">
-        <v>105.6890884399414</v>
+        <v>97.03530387878419</v>
       </c>
       <c r="I46">
-        <v>104.717030843099</v>
+        <v>96.18659210205078</v>
       </c>
       <c r="L46">
-        <v>36.1127576934696</v>
+        <v>56.25390316451377</v>
       </c>
       <c r="M46">
-        <v>39.25175078615435</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15">
+        <v>55.02174124002396</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B47">
-        <v>99.04307556152344</v>
+        <v>100.2541046142578</v>
       </c>
       <c r="C47">
-        <v>99.26647186279295</v>
+        <v>101.6485290527344</v>
       </c>
       <c r="D47">
-        <v>97.10832977294922</v>
+        <v>98.41249847412109</v>
       </c>
       <c r="E47">
-        <v>98.41212463378906</v>
+        <v>99.79547119140624</v>
       </c>
       <c r="F47">
-        <v>37313024</v>
+        <v>242614784</v>
       </c>
       <c r="G47">
-        <v>103.5358940790719</v>
+        <v>98.19938484510642</v>
       </c>
       <c r="H47">
-        <v>105.4653381347656</v>
+        <v>97.56162185668946</v>
       </c>
       <c r="I47">
-        <v>104.5914710998535</v>
+        <v>96.36797002156575</v>
       </c>
       <c r="L47">
-        <v>34.6301991373826</v>
+        <v>55.13999581886986</v>
       </c>
       <c r="M47">
-        <v>38.15877994737728</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15">
+        <v>54.28722517203992</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B48">
-        <v>98.42371368408205</v>
+        <v>99.79227447509766</v>
       </c>
       <c r="C48">
-        <v>104.2337036132812</v>
+        <v>104.5247421264648</v>
       </c>
       <c r="D48">
-        <v>98.42371368408205</v>
+        <v>99.6904754638672</v>
       </c>
       <c r="E48">
-        <v>103.9684906005859</v>
+        <v>104.4918441772461</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>311134208</v>
       </c>
       <c r="G48">
-        <v>103.5752210355732</v>
+        <v>98.77142660257367</v>
       </c>
       <c r="H48">
-        <v>105.5331604003906</v>
+        <v>98.41249580383301</v>
       </c>
       <c r="I48">
-        <v>104.5916786193848</v>
+        <v>96.69162063598633</v>
       </c>
       <c r="L48">
-        <v>52.10273751921846</v>
+        <v>66.04291141785458</v>
       </c>
       <c r="M48">
-        <v>50.00108826100735</v>
+        <v>62.13359842501479</v>
       </c>
     </row>
     <row r="49" spans="1:14">
@@ -2398,34 +2395,34 @@
         <v>61</v>
       </c>
       <c r="B49">
-        <v>103.9409103393555</v>
+        <v>104.4704513549805</v>
       </c>
       <c r="C49">
-        <v>106.2971343994141</v>
+        <v>106.9357376098633</v>
       </c>
       <c r="D49">
-        <v>102.0066757202148</v>
+        <v>100.0835494995117</v>
       </c>
       <c r="E49">
-        <v>105.6609420776367</v>
+        <v>100.632698059082</v>
       </c>
       <c r="F49">
-        <v>96046080</v>
+        <v>504829440</v>
       </c>
       <c r="G49">
-        <v>103.7648320393971</v>
+        <v>98.94063309861988</v>
       </c>
       <c r="H49">
-        <v>105.60087890625</v>
+        <v>98.95461883544922</v>
       </c>
       <c r="I49">
-        <v>104.6665657043457</v>
+        <v>96.86708424886068</v>
       </c>
       <c r="L49">
-        <v>56.12163717011701</v>
+        <v>53.92666569007891</v>
       </c>
       <c r="M49">
-        <v>52.95617995785032</v>
+        <v>53.940311660643</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -2433,34 +2430,34 @@
         <v>62</v>
       </c>
       <c r="B50">
-        <v>105.6354370117188</v>
+        <v>100.6962432861328</v>
       </c>
       <c r="C50">
-        <v>107.9824676513672</v>
+        <v>101.4639358520508</v>
       </c>
       <c r="D50">
-        <v>104.7410354614258</v>
+        <v>98.47563934326172</v>
       </c>
       <c r="E50">
-        <v>105.0719985961914</v>
+        <v>101.4639358520508</v>
       </c>
       <c r="F50">
-        <v>146927616</v>
+        <v>196050432</v>
       </c>
       <c r="G50">
-        <v>103.8836653627421</v>
+        <v>99.17002425802269</v>
       </c>
       <c r="H50">
-        <v>105.5501159667969</v>
+        <v>99.43137512207032</v>
       </c>
       <c r="I50">
-        <v>104.7740043640137</v>
+        <v>97.078662109375</v>
       </c>
       <c r="L50">
-        <v>54.33679267075448</v>
+        <v>55.88771276691199</v>
       </c>
       <c r="M50">
-        <v>51.8086739630366</v>
+        <v>55.30736772205798</v>
       </c>
     </row>
     <row r="51" spans="1:14">
@@ -2468,34 +2465,34 @@
         <v>63</v>
       </c>
       <c r="B51">
-        <v>105.0520095825195</v>
+        <v>101.4248123168945</v>
       </c>
       <c r="C51">
-        <v>105.2354278564453</v>
+        <v>102.170524597168</v>
       </c>
       <c r="D51">
-        <v>100.7729339599609</v>
+        <v>99.18552398681641</v>
       </c>
       <c r="E51">
-        <v>100.9555435180664</v>
+        <v>99.9322509765625</v>
       </c>
       <c r="F51">
-        <v>159729152</v>
+        <v>0</v>
       </c>
       <c r="G51">
-        <v>103.6174724677716</v>
+        <v>99.23931759607176</v>
       </c>
       <c r="H51">
-        <v>105.1591331481934</v>
+        <v>99.70053176879884</v>
       </c>
       <c r="I51">
-        <v>104.7890202840169</v>
+        <v>97.28491795857748</v>
       </c>
       <c r="L51">
-        <v>43.46678489038996</v>
+        <v>51.35634654561545</v>
       </c>
       <c r="M51">
-        <v>44.54334065045633</v>
+        <v>52.23110534985344</v>
       </c>
     </row>
     <row r="52" spans="1:14">
@@ -2503,34 +2500,34 @@
         <v>64</v>
       </c>
       <c r="B52">
-        <v>100.9739074707031</v>
+        <v>99.91187286376952</v>
       </c>
       <c r="C52">
-        <v>101.9856033325195</v>
+        <v>100.2544937133789</v>
       </c>
       <c r="D52">
-        <v>100.4573516845703</v>
+        <v>97.71031188964844</v>
       </c>
       <c r="E52">
-        <v>101.2955017089844</v>
+        <v>98.25465393066406</v>
       </c>
       <c r="F52">
-        <v>63558912</v>
+        <v>0</v>
       </c>
       <c r="G52">
-        <v>103.4063842169727</v>
+        <v>99.14980271739832</v>
       </c>
       <c r="H52">
-        <v>104.7492385864258</v>
+        <v>99.64348945617677</v>
       </c>
       <c r="I52">
-        <v>104.7025433858236</v>
+        <v>97.46427764892579</v>
       </c>
       <c r="L52">
-        <v>44.49834943184069</v>
+        <v>46.69165583400074</v>
       </c>
       <c r="M52">
-        <v>45.22648190894925</v>
+        <v>49.015402785414</v>
       </c>
     </row>
     <row r="53" spans="1:14">
@@ -2538,34 +2535,34 @@
         <v>65</v>
       </c>
       <c r="B53">
-        <v>101.293586730957</v>
+        <v>98.15076446533205</v>
       </c>
       <c r="C53">
-        <v>102.8760070800781</v>
+        <v>100.2392120361328</v>
       </c>
       <c r="D53">
-        <v>99.75384521484376</v>
+        <v>97.83559417724609</v>
       </c>
       <c r="E53">
-        <v>99.76820373535156</v>
+        <v>98.81271362304688</v>
       </c>
       <c r="F53">
-        <v>108649728</v>
+        <v>0</v>
       </c>
       <c r="G53">
-        <v>103.0756405368253</v>
+        <v>99.11915825427545</v>
       </c>
       <c r="H53">
-        <v>104.1655319213867</v>
+        <v>99.69465179443361</v>
       </c>
       <c r="I53">
-        <v>104.5573766072591</v>
+        <v>97.59096247355143</v>
       </c>
       <c r="L53">
-        <v>40.74105063495808</v>
+        <v>48.44413293953816</v>
       </c>
       <c r="M53">
-        <v>42.68263493695238</v>
+        <v>50.11564598730652</v>
       </c>
     </row>
     <row r="54" spans="1:14">
@@ -2573,34 +2570,34 @@
         <v>66</v>
       </c>
       <c r="B54">
-        <v>99.76514434814452</v>
+        <v>98.81793212890624</v>
       </c>
       <c r="C54">
-        <v>101.3372650146484</v>
+        <v>98.94281005859376</v>
       </c>
       <c r="D54">
-        <v>97.5310516357422</v>
+        <v>97.82154083251952</v>
       </c>
       <c r="E54">
-        <v>97.87200164794922</v>
+        <v>98.26902770996094</v>
       </c>
       <c r="F54">
-        <v>39989760</v>
+        <v>0</v>
       </c>
       <c r="G54">
-        <v>102.6025824560184</v>
+        <v>99.04187365933777</v>
       </c>
       <c r="H54">
-        <v>103.3313446044922</v>
+        <v>99.64062881469728</v>
       </c>
       <c r="I54">
-        <v>104.4008555094401</v>
+        <v>97.71200536092122</v>
       </c>
       <c r="L54">
-        <v>36.44310807048325</v>
+        <v>46.75934394496979</v>
       </c>
       <c r="M54">
-        <v>39.69722577224693</v>
+        <v>49.00608340010238</v>
       </c>
     </row>
     <row r="55" spans="1:14">
@@ -2608,34 +2605,34 @@
         <v>67</v>
       </c>
       <c r="B55">
-        <v>98.02615356445312</v>
+        <v>98.26564788818359</v>
       </c>
       <c r="C55">
-        <v>98.68316650390624</v>
+        <v>99.07412719726562</v>
       </c>
       <c r="D55">
-        <v>95.94272613525391</v>
+        <v>95.31985473632812</v>
       </c>
       <c r="E55">
-        <v>98.03083801269533</v>
+        <v>95.31985473632812</v>
       </c>
       <c r="F55">
-        <v>45636864</v>
+        <v>0</v>
       </c>
       <c r="G55">
-        <v>102.1869693248072</v>
+        <v>98.70350830270051</v>
       </c>
       <c r="H55">
-        <v>102.5369731903076</v>
+        <v>99.31411705017091</v>
       </c>
       <c r="I55">
-        <v>104.2089594523112</v>
+        <v>97.74947840372721</v>
       </c>
       <c r="L55">
-        <v>37.06873107967986</v>
+        <v>38.57296195237193</v>
       </c>
       <c r="M55">
-        <v>40.07532719630765</v>
+        <v>43.39376098280248</v>
       </c>
     </row>
     <row r="56" spans="1:14">
@@ -2643,34 +2640,34 @@
         <v>68</v>
       </c>
       <c r="B56">
-        <v>98.01723480224609</v>
+        <v>95.27353668212891</v>
       </c>
       <c r="C56">
-        <v>100.4575805664062</v>
+        <v>96.45230865478516</v>
       </c>
       <c r="D56">
-        <v>98.01723480224609</v>
+        <v>93.1356201171875</v>
       </c>
       <c r="E56">
-        <v>99.98796844482422</v>
+        <v>94.94014739990234</v>
       </c>
       <c r="F56">
-        <v>21955072</v>
+        <v>56150784</v>
       </c>
       <c r="G56">
-        <v>101.9870601538997</v>
+        <v>98.36138458426431</v>
       </c>
       <c r="H56">
-        <v>102.0487648010254</v>
+        <v>98.96218719482422</v>
       </c>
       <c r="I56">
-        <v>104.1601793924967</v>
+        <v>97.75395584106445</v>
       </c>
       <c r="L56">
-        <v>44.62467465485926</v>
+        <v>37.61899773960852</v>
       </c>
       <c r="M56">
-        <v>44.67813017661682</v>
+        <v>42.71547739531484</v>
       </c>
     </row>
     <row r="57" spans="1:14">
@@ -2678,34 +2675,34 @@
         <v>69</v>
       </c>
       <c r="B57">
-        <v>99.9879913330078</v>
+        <v>95.00450897216795</v>
       </c>
       <c r="C57">
-        <v>100.0374069213867</v>
+        <v>95.84611511230467</v>
       </c>
       <c r="D57">
-        <v>98.09851837158205</v>
+        <v>88.30984497070312</v>
       </c>
       <c r="E57">
-        <v>98.82679748535156</v>
+        <v>91.55410003662109</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>429326592</v>
       </c>
       <c r="G57">
-        <v>101.699763547668</v>
+        <v>97.74254053447856</v>
       </c>
       <c r="H57">
-        <v>101.6139938354492</v>
+        <v>98.54000892639161</v>
       </c>
       <c r="I57">
-        <v>104.024834950765</v>
+        <v>97.83012212117514</v>
       </c>
       <c r="L57">
-        <v>41.31377502170782</v>
+        <v>30.14075188958217</v>
       </c>
       <c r="M57">
-        <v>42.58803806163613</v>
+        <v>37.14030606730687</v>
       </c>
     </row>
     <row r="58" spans="1:14">
@@ -2713,34 +2710,37 @@
         <v>70</v>
       </c>
       <c r="B58">
-        <v>98.83023071289062</v>
+        <v>91.75974273681641</v>
       </c>
       <c r="C58">
-        <v>98.89959716796876</v>
+        <v>92.56803894042967</v>
       </c>
       <c r="D58">
-        <v>92.02278900146484</v>
+        <v>89.77934265136719</v>
       </c>
       <c r="E58">
-        <v>94.35413360595705</v>
+        <v>91.09522247314452</v>
       </c>
       <c r="F58">
-        <v>332323328</v>
+        <v>66613248</v>
       </c>
       <c r="G58">
-        <v>101.0319790075125</v>
+        <v>97.13823889253911</v>
       </c>
       <c r="H58">
-        <v>101.0014423370361</v>
+        <v>98.12687225341797</v>
       </c>
       <c r="I58">
-        <v>103.7495712280273</v>
+        <v>97.95081736246745</v>
       </c>
       <c r="L58">
-        <v>31.26256794628302</v>
+        <v>29.25413480880525</v>
       </c>
       <c r="M58">
-        <v>35.66672557036277</v>
+        <v>36.44606221265261</v>
+      </c>
+      <c r="N58" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="59" spans="1:14">
@@ -2748,34 +2748,34 @@
         <v>71</v>
       </c>
       <c r="B59">
-        <v>94.37487030029295</v>
+        <v>91.10030364990234</v>
       </c>
       <c r="C59">
-        <v>95.64556884765624</v>
+        <v>93.18424987792967</v>
       </c>
       <c r="D59">
-        <v>94.00751495361328</v>
+        <v>91.00672912597656</v>
       </c>
       <c r="E59">
-        <v>94.78232574462891</v>
+        <v>92.67831420898438</v>
       </c>
       <c r="F59">
-        <v>39955712</v>
+        <v>18940672</v>
       </c>
       <c r="G59">
-        <v>100.4638287108867</v>
+        <v>96.73279119403412</v>
       </c>
       <c r="H59">
-        <v>100.339270401001</v>
+        <v>97.79101867675782</v>
       </c>
       <c r="I59">
-        <v>103.4320963541667</v>
+        <v>98.04708658854166</v>
       </c>
       <c r="L59">
-        <v>33.01769428358644</v>
+        <v>36.50340413667313</v>
       </c>
       <c r="M59">
-        <v>36.7268993338959</v>
+        <v>40.57314565375516</v>
       </c>
     </row>
     <row r="60" spans="1:14">
@@ -2783,34 +2783,34 @@
         <v>72</v>
       </c>
       <c r="B60">
-        <v>94.76769256591795</v>
+        <v>92.68089294433594</v>
       </c>
       <c r="C60">
-        <v>96.29456329345705</v>
+        <v>93.08658599853516</v>
       </c>
       <c r="D60">
-        <v>93.2353057861328</v>
+        <v>91.71003723144533</v>
       </c>
       <c r="E60">
-        <v>95.36878967285156</v>
+        <v>92.17519378662109</v>
       </c>
       <c r="F60">
         <v>0</v>
       </c>
       <c r="G60">
-        <v>100.0006433437926</v>
+        <v>96.31846415699658</v>
       </c>
       <c r="H60">
-        <v>99.71608963012696</v>
+        <v>97.41382217407227</v>
       </c>
       <c r="I60">
-        <v>103.0748140970866</v>
+        <v>98.0552993774414</v>
       </c>
       <c r="L60">
-        <v>35.55323921798787</v>
+        <v>35.21331857215657</v>
       </c>
       <c r="M60">
-        <v>38.22837305123249</v>
+        <v>39.69099388960003</v>
       </c>
     </row>
     <row r="61" spans="1:14">
@@ -2818,34 +2818,34 @@
         <v>73</v>
       </c>
       <c r="B61">
-        <v>95.34529876708984</v>
+        <v>92.1806640625</v>
       </c>
       <c r="C61">
-        <v>97.06942749023438</v>
+        <v>93.14630889892578</v>
       </c>
       <c r="D61">
-        <v>94.78286743164062</v>
+        <v>91.32672119140624</v>
       </c>
       <c r="E61">
-        <v>95.11660003662109</v>
+        <v>92.87489318847656</v>
       </c>
       <c r="F61">
         <v>0</v>
       </c>
       <c r="G61">
-        <v>99.55663940677701</v>
+        <v>96.00541225076749</v>
       </c>
       <c r="H61">
-        <v>99.31021881103516</v>
+        <v>97.14761276245117</v>
       </c>
       <c r="I61">
-        <v>102.6195274353027</v>
+        <v>97.99949188232422</v>
       </c>
       <c r="L61">
-        <v>34.9138758726909</v>
+        <v>38.60792582249812</v>
       </c>
       <c r="M61">
-        <v>37.81283720365953</v>
+        <v>41.59292305662314</v>
       </c>
     </row>
     <row r="62" spans="1:14">
@@ -2853,34 +2853,34 @@
         <v>74</v>
       </c>
       <c r="B62">
-        <v>95.10139465332033</v>
+        <v>92.8751220703125</v>
       </c>
       <c r="C62">
-        <v>95.48077392578124</v>
+        <v>95.39176940917967</v>
       </c>
       <c r="D62">
-        <v>92.70223999023438</v>
+        <v>91.79133605957033</v>
       </c>
       <c r="E62">
-        <v>93.74457550048828</v>
+        <v>94.92751312255859</v>
       </c>
       <c r="F62">
-        <v>22697216</v>
+        <v>92176768</v>
       </c>
       <c r="G62">
-        <v>99.02826996075076</v>
+        <v>95.90742142093031</v>
       </c>
       <c r="H62">
-        <v>98.9810749053955</v>
+        <v>97.01880111694337</v>
       </c>
       <c r="I62">
-        <v>102.0945668538411</v>
+        <v>97.85055898030599</v>
       </c>
       <c r="L62">
-        <v>31.45205385744506</v>
+        <v>47.65891566393395</v>
       </c>
       <c r="M62">
-        <v>35.54888139289479</v>
+        <v>46.88483296277512</v>
       </c>
     </row>
     <row r="63" spans="1:14">
@@ -2888,37 +2888,34 @@
         <v>75</v>
       </c>
       <c r="B63">
-        <v>93.8603515625</v>
+        <v>94.90706634521484</v>
       </c>
       <c r="C63">
-        <v>96.28854370117188</v>
+        <v>96.91764831542967</v>
       </c>
       <c r="D63">
-        <v>92.23455810546876</v>
+        <v>94.84581756591795</v>
       </c>
       <c r="E63">
-        <v>92.87386322021484</v>
+        <v>95.72540283203124</v>
       </c>
       <c r="F63">
-        <v>147343360</v>
+        <v>112312576</v>
       </c>
       <c r="G63">
-        <v>98.46877843888386</v>
+        <v>95.89087427648494</v>
       </c>
       <c r="H63">
-        <v>98.74796218872071</v>
+        <v>97.08092193603514</v>
       </c>
       <c r="I63">
-        <v>101.4756177266439</v>
+        <v>97.78175684611003</v>
       </c>
       <c r="L63">
-        <v>29.37275610026102</v>
+        <v>50.82906061543078</v>
       </c>
       <c r="M63">
-        <v>34.1514351366616</v>
-      </c>
-      <c r="N63" t="s">
-        <v>195</v>
+        <v>48.82579516453258</v>
       </c>
     </row>
     <row r="64" spans="1:14">
@@ -2926,600 +2923,594 @@
         <v>76</v>
       </c>
       <c r="B64">
-        <v>92.87892913818359</v>
+        <v>95.73265075683594</v>
       </c>
       <c r="C64">
-        <v>95.18532562255859</v>
+        <v>96.822021484375</v>
       </c>
       <c r="D64">
-        <v>92.87892913818359</v>
+        <v>94.50460815429688</v>
       </c>
       <c r="E64">
-        <v>95.01216888427734</v>
+        <v>96.822021484375</v>
       </c>
       <c r="F64">
-        <v>53857280</v>
+        <v>59855872</v>
       </c>
       <c r="G64">
-        <v>98.15454120664691</v>
+        <v>95.97552402265676</v>
       </c>
       <c r="H64">
-        <v>98.56899337768554</v>
+        <v>97.09597930908203</v>
       </c>
       <c r="I64">
-        <v>100.8241650899251</v>
+        <v>97.69750798543295</v>
       </c>
       <c r="L64">
-        <v>40.28042660122832</v>
+        <v>55.03954791126944</v>
       </c>
       <c r="M64">
-        <v>40.3526933233267</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14">
+        <v>51.45164848118792</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B65">
-        <v>95.0321044921875</v>
+        <v>96.87075805664062</v>
       </c>
       <c r="C65">
-        <v>95.4990692138672</v>
+        <v>98.61647796630859</v>
       </c>
       <c r="D65">
-        <v>93.22934722900391</v>
+        <v>96.14764404296876</v>
       </c>
       <c r="E65">
-        <v>94.6377410888672</v>
+        <v>97.85312652587891</v>
       </c>
       <c r="F65">
-        <v>3220480</v>
+        <v>132459136</v>
       </c>
       <c r="G65">
-        <v>97.83483210503056</v>
+        <v>96.14621515931331</v>
       </c>
       <c r="H65">
-        <v>98.24281044006348</v>
+        <v>96.8869846343994</v>
       </c>
       <c r="I65">
-        <v>100.1814809163411</v>
+        <v>97.56427586873373</v>
       </c>
       <c r="L65">
-        <v>39.09113368040103</v>
+        <v>58.773747439425</v>
       </c>
       <c r="M65">
-        <v>39.64857752649743</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14">
+        <v>53.84952859360483</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B66">
-        <v>94.63909912109376</v>
+        <v>98.07691955566406</v>
       </c>
       <c r="C66">
-        <v>96.69239807128906</v>
+        <v>98.32773590087891</v>
       </c>
       <c r="D66">
-        <v>93.80590057373048</v>
+        <v>96.7257843017578</v>
       </c>
       <c r="E66">
-        <v>94.19566345214844</v>
+        <v>96.89008331298828</v>
       </c>
       <c r="F66">
-        <v>57904128</v>
+        <v>42264448</v>
       </c>
       <c r="G66">
-        <v>97.50399859113219</v>
+        <v>96.21383953692013</v>
       </c>
       <c r="H66">
-        <v>97.99681358337402</v>
+        <v>96.72542343139648</v>
       </c>
       <c r="I66">
-        <v>99.66293182373047</v>
+        <v>97.3946538289388</v>
       </c>
       <c r="L66">
-        <v>37.61593792218412</v>
+        <v>54.05628518102311</v>
       </c>
       <c r="M66">
-        <v>38.78801144540773</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14">
+        <v>51.30090582071793</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B67">
-        <v>94.16520690917967</v>
+        <v>96.82366180419922</v>
       </c>
       <c r="C67">
-        <v>94.99742889404295</v>
+        <v>99.62737274169922</v>
       </c>
       <c r="D67">
-        <v>93.41010284423828</v>
+        <v>96.43331909179688</v>
       </c>
       <c r="E67">
-        <v>94.80582427978516</v>
+        <v>99.62737274169922</v>
       </c>
       <c r="F67">
-        <v>14725632</v>
+        <v>136661248</v>
       </c>
       <c r="G67">
-        <v>97.25871001737336</v>
+        <v>96.52416073735459</v>
       </c>
       <c r="H67">
-        <v>97.81649856567383</v>
+        <v>96.71701850891114</v>
       </c>
       <c r="I67">
-        <v>99.23905207316081</v>
+        <v>97.38231074015299</v>
       </c>
       <c r="L67">
-        <v>41.06906844779816</v>
+        <v>63.43972328872111</v>
       </c>
       <c r="M67">
-        <v>40.70109418566534</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14">
+        <v>57.46327027856285</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B68">
-        <v>94.80001068115234</v>
+        <v>99.6294403076172</v>
       </c>
       <c r="C68">
-        <v>95.21267700195312</v>
+        <v>102.173583984375</v>
       </c>
       <c r="D68">
-        <v>88.22345733642578</v>
+        <v>96.1749267578125</v>
       </c>
       <c r="E68">
-        <v>89.26911163330078</v>
+        <v>96.1749267578125</v>
       </c>
       <c r="F68">
-        <v>303465344</v>
+        <v>513023744</v>
       </c>
       <c r="G68">
-        <v>96.53238289154858</v>
+        <v>96.49241219375986</v>
       </c>
       <c r="H68">
-        <v>97.08152961730957</v>
+        <v>96.30117263793946</v>
       </c>
       <c r="I68">
-        <v>98.6611836751302</v>
+        <v>97.27620976765951</v>
       </c>
       <c r="L68">
-        <v>26.24110191941869</v>
+        <v>49.1858024616511</v>
       </c>
       <c r="M68">
-        <v>31.17867550623162</v>
-      </c>
-      <c r="N68" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14">
+        <v>49.03524711307563</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B69">
-        <v>89.27817535400391</v>
+        <v>96.17591857910156</v>
       </c>
       <c r="C69">
-        <v>90.67942047119141</v>
+        <v>97.53977203369141</v>
       </c>
       <c r="D69">
-        <v>85.64669799804688</v>
+        <v>93.89056396484376</v>
       </c>
       <c r="E69">
-        <v>87.474365234375</v>
+        <v>94.11765289306641</v>
       </c>
       <c r="F69">
-        <v>425684736</v>
+        <v>101410048</v>
       </c>
       <c r="G69">
-        <v>95.70892674089643</v>
+        <v>96.2765249846059</v>
       </c>
       <c r="H69">
-        <v>96.17220077514648</v>
+        <v>95.97542037963866</v>
       </c>
       <c r="I69">
-        <v>97.9761370340983</v>
+        <v>97.10028533935547</v>
       </c>
       <c r="L69">
-        <v>23.18804744086618</v>
+        <v>42.74711157250127</v>
       </c>
       <c r="M69">
-        <v>28.82450038481203</v>
-      </c>
-      <c r="N69" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14">
+        <v>44.81703509960193</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B70">
-        <v>87.47711181640625</v>
+        <v>94.03654479980467</v>
       </c>
       <c r="C70">
-        <v>90.47542572021484</v>
+        <v>96.82123565673828</v>
       </c>
       <c r="D70">
-        <v>87.14730072021484</v>
+        <v>93.90121459960938</v>
       </c>
       <c r="E70">
-        <v>89.79023742675781</v>
+        <v>95.76667785644533</v>
       </c>
       <c r="F70">
-        <v>181261312</v>
+        <v>36899328</v>
       </c>
       <c r="G70">
-        <v>95.17086407597473</v>
+        <v>96.2301752456822</v>
       </c>
       <c r="H70">
-        <v>95.40811271667481</v>
+        <v>95.6905574798584</v>
       </c>
       <c r="I70">
-        <v>97.37473144531251</v>
+        <v>96.96853713989258</v>
       </c>
       <c r="L70">
-        <v>34.286689654326</v>
+        <v>48.79193754349269</v>
       </c>
       <c r="M70">
-        <v>35.58338713575144</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14">
+        <v>48.63152535995967</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B71">
-        <v>89.79701995849609</v>
+        <v>95.75936126708984</v>
       </c>
       <c r="C71">
-        <v>91.92881011962891</v>
+        <v>96.54142761230467</v>
       </c>
       <c r="D71">
-        <v>89.26554870605469</v>
+        <v>95.10198974609376</v>
       </c>
       <c r="E71">
-        <v>91.92881011962891</v>
+        <v>95.67436981201172</v>
       </c>
       <c r="F71">
-        <v>133611776</v>
+        <v>0</v>
       </c>
       <c r="G71">
-        <v>94.87613189812511</v>
+        <v>96.17964747898489</v>
       </c>
       <c r="H71">
-        <v>94.95677604675294</v>
+        <v>95.47766342163087</v>
       </c>
       <c r="I71">
-        <v>96.99789123535156</v>
+        <v>96.88438008626302</v>
       </c>
       <c r="L71">
-        <v>42.86334244277458</v>
+        <v>48.46966650792876</v>
       </c>
       <c r="M71">
-        <v>41.14174073609327</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14">
+        <v>48.42971641627064</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B72">
-        <v>91.93854522705078</v>
+        <v>95.60670471191406</v>
       </c>
       <c r="C72">
-        <v>95.41043853759766</v>
+        <v>95.86579895019533</v>
       </c>
       <c r="D72">
-        <v>91.93854522705078</v>
+        <v>94.51031494140624</v>
       </c>
       <c r="E72">
-        <v>94.5491180419922</v>
+        <v>95.38874816894533</v>
       </c>
       <c r="F72">
-        <v>630469120</v>
+        <v>19119104</v>
       </c>
       <c r="G72">
-        <v>94.84640336574938</v>
+        <v>96.10774754170856</v>
       </c>
       <c r="H72">
-        <v>94.61945686340331</v>
+        <v>95.33436813354493</v>
       </c>
       <c r="I72">
-        <v>96.80528004964192</v>
+        <v>96.81388015747071</v>
       </c>
       <c r="L72">
-        <v>51.57524060344352</v>
+        <v>47.38029734544345</v>
       </c>
       <c r="M72">
-        <v>47.15817394286247</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14">
+        <v>47.76916532187152</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B73">
-        <v>94.57540893554688</v>
+        <v>95.38737487792967</v>
       </c>
       <c r="C73">
-        <v>99.76187133789062</v>
+        <v>95.70668792724609</v>
       </c>
       <c r="D73">
-        <v>94.15090942382812</v>
+        <v>93.24111175537109</v>
       </c>
       <c r="E73">
-        <v>99.39550018310548</v>
+        <v>93.52471160888672</v>
       </c>
       <c r="F73">
-        <v>699635968</v>
+        <v>23725568</v>
       </c>
       <c r="G73">
-        <v>95.25995762187266</v>
+        <v>95.87292609327021</v>
       </c>
       <c r="H73">
-        <v>94.60082168579102</v>
+        <v>95.06996803283691</v>
       </c>
       <c r="I73">
-        <v>96.86725947062175</v>
+        <v>96.78193766276041</v>
       </c>
       <c r="L73">
-        <v>63.23827770539856</v>
+        <v>40.66929321698962</v>
       </c>
       <c r="M73">
-        <v>56.09692144619698</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14">
+        <v>43.59052854974976</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B74">
-        <v>99.40914916992188</v>
+        <v>93.53660583496094</v>
       </c>
       <c r="C74">
-        <v>99.40914916992188</v>
+        <v>96.51332092285156</v>
       </c>
       <c r="D74">
-        <v>96.72657012939452</v>
+        <v>93.46531677246094</v>
       </c>
       <c r="E74">
-        <v>97.78946685791016</v>
+        <v>95.98098754882812</v>
       </c>
       <c r="F74">
-        <v>97280512</v>
+        <v>0</v>
       </c>
       <c r="G74">
-        <v>95.48991300696697</v>
+        <v>95.88274986195728</v>
       </c>
       <c r="H74">
-        <v>94.59669494628906</v>
+        <v>94.95556602478027</v>
       </c>
       <c r="I74">
-        <v>96.84052352905273</v>
+        <v>96.76394144694011</v>
       </c>
       <c r="L74">
-        <v>58.02788621489559</v>
+        <v>50.96529367527513</v>
       </c>
       <c r="M74">
-        <v>52.90316296102191</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14">
+        <v>49.81966617901831</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B75">
-        <v>97.81603240966795</v>
+        <v>95.98088836669922</v>
       </c>
       <c r="C75">
-        <v>99.67715454101562</v>
+        <v>96.35294342041016</v>
       </c>
       <c r="D75">
-        <v>95.89379119873048</v>
+        <v>93.65264892578124</v>
       </c>
       <c r="E75">
-        <v>99.3494873046875</v>
+        <v>94.49423980712891</v>
       </c>
       <c r="F75">
-        <v>32189184</v>
+        <v>0</v>
       </c>
       <c r="G75">
-        <v>95.84078339766883</v>
+        <v>95.7565216751547</v>
       </c>
       <c r="H75">
-        <v>94.66262741088867</v>
+        <v>94.91428527832031</v>
       </c>
       <c r="I75">
-        <v>96.78012644449869</v>
+        <v>96.51264877319336</v>
       </c>
       <c r="L75">
-        <v>61.49476283031314</v>
+        <v>45.57926119190479</v>
       </c>
       <c r="M75">
-        <v>55.55039131840238</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14">
+        <v>46.47437251886414</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B76">
-        <v>99.41374206542967</v>
+        <v>94.43834686279295</v>
       </c>
       <c r="C76">
-        <v>103.7961654663086</v>
+        <v>96.09483337402344</v>
       </c>
       <c r="D76">
-        <v>99.41374206542967</v>
+        <v>94.3966827392578</v>
       </c>
       <c r="E76">
-        <v>101.8500900268555</v>
+        <v>96.0098114013672</v>
       </c>
       <c r="F76">
-        <v>293177856</v>
+        <v>23887232</v>
       </c>
       <c r="G76">
-        <v>96.38708400032216</v>
+        <v>95.77954801390129</v>
       </c>
       <c r="H76">
-        <v>94.75573348999023</v>
+        <v>94.96776847839355</v>
       </c>
       <c r="I76">
-        <v>96.8712760925293</v>
+        <v>96.3755989074707</v>
       </c>
       <c r="L76">
-        <v>66.48662556137087</v>
+        <v>51.46186034367391</v>
       </c>
       <c r="M76">
-        <v>59.48180584861716</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14">
+        <v>50.14914061008745</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B77">
-        <v>101.8520202636719</v>
+        <v>96.03652191162109</v>
       </c>
       <c r="C77">
-        <v>102.5868072509766</v>
+        <v>97.9650421142578</v>
       </c>
       <c r="D77">
-        <v>99.98487091064452</v>
+        <v>95.39481353759766</v>
       </c>
       <c r="E77">
-        <v>101.9787445068359</v>
+        <v>97.76014709472656</v>
       </c>
       <c r="F77">
-        <v>50465280</v>
+        <v>90039040</v>
       </c>
       <c r="G77">
-        <v>96.8954167736416</v>
+        <v>95.9596024757945</v>
       </c>
       <c r="H77">
-        <v>94.91333084106445</v>
+        <v>95.27807083129883</v>
       </c>
       <c r="I77">
-        <v>96.99016342163085</v>
+        <v>96.30775477091471</v>
       </c>
       <c r="L77">
-        <v>66.73622699560666</v>
+        <v>57.43924930034105</v>
       </c>
       <c r="M77">
-        <v>59.67939940887302</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14">
+        <v>54.07093939700427</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B78">
-        <v>101.9862060546875</v>
+        <v>97.71452331542967</v>
       </c>
       <c r="C78">
-        <v>102.2774047851562</v>
+        <v>97.96287536621094</v>
       </c>
       <c r="D78">
-        <v>98.30861663818359</v>
+        <v>96.40822601318359</v>
       </c>
       <c r="E78">
-        <v>99.99766540527344</v>
+        <v>96.58976745605467</v>
       </c>
       <c r="F78">
-        <v>76162304</v>
+        <v>89275392</v>
       </c>
       <c r="G78">
-        <v>97.17743937651721</v>
+        <v>96.01689020127269</v>
       </c>
       <c r="H78">
-        <v>95.19550743103028</v>
+        <v>95.55279808044433</v>
       </c>
       <c r="I78">
-        <v>96.85780258178711</v>
+        <v>96.04435221354167</v>
       </c>
       <c r="L78">
-        <v>59.10985108443266</v>
+        <v>52.56936080515804</v>
       </c>
       <c r="M78">
-        <v>55.2142550083439</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14">
+        <v>51.17202523742613</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B79">
-        <v>99.94858551025391</v>
+        <v>96.60636138916016</v>
       </c>
       <c r="C79">
-        <v>101.1668853759766</v>
+        <v>97.46146392822266</v>
       </c>
       <c r="D79">
-        <v>98.78969573974609</v>
+        <v>94.47268676757812</v>
       </c>
       <c r="E79">
-        <v>99.3579559326172</v>
+        <v>97.46146392822266</v>
       </c>
       <c r="F79">
-        <v>0</v>
+        <v>68201728</v>
       </c>
       <c r="G79">
-        <v>97.37566815434448</v>
+        <v>96.14821508554085</v>
       </c>
       <c r="H79">
-        <v>95.4242889404297</v>
+        <v>95.79195556640624</v>
       </c>
       <c r="I79">
-        <v>96.64770304361979</v>
+        <v>95.93864440917969</v>
       </c>
       <c r="L79">
-        <v>56.75379849588195</v>
+        <v>55.71533177382043</v>
       </c>
       <c r="M79">
-        <v>53.81411044450313</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14">
+        <v>53.18518377696542</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B80">
-        <v>99.35710144042967</v>
+        <v>97.42953491210938</v>
       </c>
       <c r="C80">
-        <v>102.0872268676758</v>
+        <v>97.58408355712891</v>
       </c>
       <c r="D80">
-        <v>96.26350402832033</v>
+        <v>96.20689392089844</v>
       </c>
       <c r="E80">
-        <v>99.3953857421875</v>
+        <v>96.78385162353516</v>
       </c>
       <c r="F80">
-        <v>624676864</v>
+        <v>13128448</v>
       </c>
       <c r="G80">
-        <v>97.55927884414839</v>
+        <v>96.20600022535851</v>
       </c>
       <c r="H80">
-        <v>95.6256187438965</v>
+        <v>96.02238845825195</v>
       </c>
       <c r="I80">
-        <v>96.45848261515299</v>
+        <v>95.7826416015625</v>
       </c>
       <c r="L80">
-        <v>56.8669661931136</v>
+        <v>52.66075309142427</v>
       </c>
       <c r="M80">
-        <v>53.8877917143331</v>
+        <v>51.4107338518976</v>
       </c>
     </row>
     <row r="81" spans="1:13">
@@ -3527,34 +3518,34 @@
         <v>93</v>
       </c>
       <c r="B81">
-        <v>99.38423919677734</v>
+        <v>96.77325439453124</v>
       </c>
       <c r="C81">
-        <v>100.0294952392578</v>
+        <v>98.59530639648438</v>
       </c>
       <c r="D81">
-        <v>97.66038513183594</v>
+        <v>96.77325439453124</v>
       </c>
       <c r="E81">
-        <v>99.71912384033205</v>
+        <v>97.58969879150391</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>41585152</v>
       </c>
       <c r="G81">
-        <v>97.755628389256</v>
+        <v>96.33179100409899</v>
       </c>
       <c r="H81">
-        <v>95.85574493408204</v>
+        <v>96.25812873840331</v>
       </c>
       <c r="I81">
-        <v>96.41726862589518</v>
+        <v>95.70455652872721</v>
       </c>
       <c r="L81">
-        <v>57.93797587131284</v>
+        <v>55.8957992003203</v>
       </c>
       <c r="M81">
-        <v>54.56297020743973</v>
+        <v>53.40185548723376</v>
       </c>
     </row>
     <row r="82" spans="1:13">
@@ -3562,34 +3553,34 @@
         <v>94</v>
       </c>
       <c r="B82">
-        <v>99.71906280517578</v>
+        <v>97.61580657958984</v>
       </c>
       <c r="C82">
-        <v>100.3056106567383</v>
+        <v>100.7749404907227</v>
       </c>
       <c r="D82">
-        <v>98.19692230224609</v>
+        <v>97.486083984375</v>
       </c>
       <c r="E82">
-        <v>98.19908142089844</v>
+        <v>99.99896240234376</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>235408896</v>
       </c>
       <c r="G82">
-        <v>97.79594230122349</v>
+        <v>96.66517022212125</v>
       </c>
       <c r="H82">
-        <v>96.07847023010255</v>
+        <v>96.51170120239257</v>
       </c>
       <c r="I82">
-        <v>96.31405461629232</v>
+        <v>95.76270014444987</v>
       </c>
       <c r="L82">
-        <v>51.22001445042581</v>
+        <v>64.13853403252712</v>
       </c>
       <c r="M82">
-        <v>50.80175668001467</v>
+        <v>58.83334949139849</v>
       </c>
     </row>
     <row r="83" spans="1:13">
@@ -3597,34 +3588,34 @@
         <v>95</v>
       </c>
       <c r="B83">
-        <v>98.20261383056641</v>
+        <v>99.99933624267578</v>
       </c>
       <c r="C83">
-        <v>98.22606658935548</v>
+        <v>100.1706390380859</v>
       </c>
       <c r="D83">
-        <v>96.45053100585938</v>
+        <v>97.23290252685548</v>
       </c>
       <c r="E83">
-        <v>97.50374603271484</v>
+        <v>97.24393463134766</v>
       </c>
       <c r="F83">
-        <v>0</v>
+        <v>81223296</v>
       </c>
       <c r="G83">
-        <v>97.76937900408633</v>
+        <v>96.71778516841455</v>
       </c>
       <c r="H83">
-        <v>96.30996437072756</v>
+        <v>96.5876277923584</v>
       </c>
       <c r="I83">
-        <v>96.23857269287109</v>
+        <v>95.71040751139323</v>
       </c>
       <c r="L83">
-        <v>48.33575802929996</v>
+        <v>51.70676525919942</v>
       </c>
       <c r="M83">
-        <v>49.13324689178488</v>
+        <v>51.44837966520056</v>
       </c>
     </row>
     <row r="84" spans="1:13">
@@ -3632,34 +3623,34 @@
         <v>96</v>
       </c>
       <c r="B84">
-        <v>97.51360321044922</v>
+        <v>97.23810577392578</v>
       </c>
       <c r="C84">
-        <v>97.53481292724609</v>
+        <v>102.4337387084961</v>
       </c>
       <c r="D84">
-        <v>92.56326293945312</v>
+        <v>97.05516052246094</v>
       </c>
       <c r="E84">
-        <v>94.48298645019533</v>
+        <v>101.9427032470703</v>
       </c>
       <c r="F84">
-        <v>128688896</v>
+        <v>396279552</v>
       </c>
       <c r="G84">
-        <v>97.4706160446417</v>
+        <v>97.19277772101961</v>
       </c>
       <c r="H84">
-        <v>96.28350524902345</v>
+        <v>96.84366188049317</v>
       </c>
       <c r="I84">
-        <v>96.12560551961263</v>
+        <v>95.83286336263021</v>
       </c>
       <c r="L84">
-        <v>37.90407418412621</v>
+        <v>64.79824660961141</v>
       </c>
       <c r="M84">
-        <v>42.58907433902719</v>
+        <v>60.54482793955959</v>
       </c>
     </row>
     <row r="85" spans="1:13">
@@ -3667,34 +3658,34 @@
         <v>97</v>
       </c>
       <c r="B85">
-        <v>94.48133087158205</v>
+        <v>101.9644088745117</v>
       </c>
       <c r="C85">
-        <v>98.06941986083984</v>
+        <v>102.4017639160156</v>
       </c>
       <c r="D85">
-        <v>94.14076995849609</v>
+        <v>99.46280670166016</v>
       </c>
       <c r="E85">
-        <v>96.5208740234375</v>
+        <v>99.61777496337891</v>
       </c>
       <c r="F85">
-        <v>224610560</v>
+        <v>277350400</v>
       </c>
       <c r="G85">
-        <v>97.38427586089587</v>
+        <v>97.41323201577954</v>
       </c>
       <c r="H85">
-        <v>96.37766189575197</v>
+        <v>96.93189430236818</v>
       </c>
       <c r="I85">
-        <v>96.07527338663736</v>
+        <v>95.97612737019857</v>
       </c>
       <c r="L85">
-        <v>46.64361926748588</v>
+        <v>56.30238700349618</v>
       </c>
       <c r="M85">
-        <v>47.65440882332049</v>
+        <v>55.04906193150791</v>
       </c>
     </row>
     <row r="86" spans="1:13">
@@ -3702,34 +3693,34 @@
         <v>98</v>
       </c>
       <c r="B86">
-        <v>96.49250793457033</v>
+        <v>99.53460693359376</v>
       </c>
       <c r="C86">
-        <v>105.0823745727539</v>
+        <v>100.9358444213867</v>
       </c>
       <c r="D86">
-        <v>94.580322265625</v>
+        <v>97.59458923339844</v>
       </c>
       <c r="E86">
-        <v>102.0330200195312</v>
+        <v>100.8136138916016</v>
       </c>
       <c r="F86">
-        <v>745239808</v>
+        <v>360398080</v>
       </c>
       <c r="G86">
-        <v>97.80688896622635</v>
+        <v>97.72235764085427</v>
       </c>
       <c r="H86">
-        <v>96.7695297241211</v>
+        <v>97.12807083129884</v>
       </c>
       <c r="I86">
-        <v>96.14344177246093</v>
+        <v>96.17190958658854</v>
       </c>
       <c r="L86">
-        <v>62.6426789508714</v>
+        <v>59.38386001521825</v>
       </c>
       <c r="M86">
-        <v>58.35683975797899</v>
+        <v>57.20101343196277</v>
       </c>
     </row>
     <row r="87" spans="1:13">
@@ -3737,34 +3728,34 @@
         <v>99</v>
       </c>
       <c r="B87">
-        <v>102.1036529541016</v>
+        <v>100.7400054931641</v>
       </c>
       <c r="C87">
-        <v>102.1036529541016</v>
+        <v>102.0604248046875</v>
       </c>
       <c r="D87">
-        <v>99.37142181396484</v>
+        <v>100.4187927246094</v>
       </c>
       <c r="E87">
-        <v>100.1213073730469</v>
+        <v>101.9918975830078</v>
       </c>
       <c r="F87">
-        <v>210730496</v>
+        <v>177807104</v>
       </c>
       <c r="G87">
-        <v>98.01729063957367</v>
+        <v>98.11049763559549</v>
       </c>
       <c r="H87">
-        <v>97.03530387878419</v>
+        <v>97.24629707336427</v>
       </c>
       <c r="I87">
-        <v>96.18659210205078</v>
+        <v>96.5198361714681</v>
       </c>
       <c r="L87">
-        <v>56.08149651737272</v>
+        <v>62.32856958402564</v>
       </c>
       <c r="M87">
-        <v>54.21663811160752</v>
+        <v>59.27005586447682</v>
       </c>
     </row>
     <row r="88" spans="1:13">
@@ -3772,34 +3763,34 @@
         <v>100</v>
       </c>
       <c r="B88">
-        <v>100.2541046142578</v>
+        <v>102.0294952392578</v>
       </c>
       <c r="C88">
-        <v>101.6485290527344</v>
+        <v>102.9231414794922</v>
       </c>
       <c r="D88">
-        <v>98.41249847412109</v>
+        <v>99.71507263183594</v>
       </c>
       <c r="E88">
-        <v>99.79547119140624</v>
+        <v>99.8273468017578</v>
       </c>
       <c r="F88">
-        <v>242614784</v>
+        <v>100120320</v>
       </c>
       <c r="G88">
-        <v>98.17894341701299</v>
+        <v>98.26657483251934</v>
       </c>
       <c r="H88">
-        <v>97.56162185668947</v>
+        <v>97.42891807556154</v>
       </c>
       <c r="I88">
-        <v>96.36797002156575</v>
+        <v>96.81090698242187</v>
       </c>
       <c r="L88">
-        <v>54.97735472653449</v>
+        <v>54.20651763152048</v>
       </c>
       <c r="M88">
-        <v>53.51968326722043</v>
+        <v>54.09629850209216</v>
       </c>
     </row>
     <row r="89" spans="1:13">
@@ -3807,34 +3798,34 @@
         <v>101</v>
       </c>
       <c r="B89">
-        <v>99.79227447509766</v>
+        <v>99.8273468017578</v>
       </c>
       <c r="C89">
-        <v>104.5247421264648</v>
+        <v>101.3633651733398</v>
       </c>
       <c r="D89">
-        <v>99.6904754638672</v>
+        <v>99.79608154296876</v>
       </c>
       <c r="E89">
-        <v>104.4918441772461</v>
+        <v>100.6277542114258</v>
       </c>
       <c r="F89">
-        <v>311134208</v>
+        <v>91218944</v>
       </c>
       <c r="G89">
-        <v>98.75284348612509</v>
+        <v>98.48122750332901</v>
       </c>
       <c r="H89">
-        <v>98.41249580383302</v>
+        <v>97.75442314147951</v>
       </c>
       <c r="I89">
-        <v>96.69162063598633</v>
+        <v>97.07588831583659</v>
       </c>
       <c r="L89">
-        <v>65.87235737236792</v>
+        <v>56.56130252557575</v>
       </c>
       <c r="M89">
-        <v>61.25140141552811</v>
+        <v>55.63837587022599</v>
       </c>
     </row>
     <row r="90" spans="1:13">
@@ -3842,34 +3833,34 @@
         <v>102</v>
       </c>
       <c r="B90">
-        <v>104.4704513549805</v>
+        <v>100.6430130004883</v>
       </c>
       <c r="C90">
-        <v>106.9357376098633</v>
+        <v>101.0454483032227</v>
       </c>
       <c r="D90">
-        <v>100.0835494995117</v>
+        <v>98.38793182373048</v>
       </c>
       <c r="E90">
-        <v>100.632698059082</v>
+        <v>98.76031494140624</v>
       </c>
       <c r="F90">
-        <v>504829440</v>
+        <v>0</v>
       </c>
       <c r="G90">
-        <v>98.9237393563939</v>
+        <v>98.50659908860875</v>
       </c>
       <c r="H90">
-        <v>98.95461883544922</v>
+        <v>97.90410499572754</v>
       </c>
       <c r="I90">
-        <v>96.86708424886068</v>
+        <v>97.29539235432942</v>
       </c>
       <c r="L90">
-        <v>53.83021834082558</v>
+        <v>49.83508807325089</v>
       </c>
       <c r="M90">
-        <v>53.3918899186294</v>
+        <v>51.3076504039857</v>
       </c>
     </row>
     <row r="91" spans="1:13">
@@ -3877,34 +3868,34 @@
         <v>103</v>
       </c>
       <c r="B91">
-        <v>100.6962432861328</v>
+        <v>98.76564788818359</v>
       </c>
       <c r="C91">
-        <v>101.4639358520508</v>
+        <v>99.10459136962891</v>
       </c>
       <c r="D91">
-        <v>98.47563934326172</v>
+        <v>97.8903350830078</v>
       </c>
       <c r="E91">
-        <v>101.4639358520508</v>
+        <v>98.25632476806641</v>
       </c>
       <c r="F91">
-        <v>196050432</v>
+        <v>0</v>
       </c>
       <c r="G91">
-        <v>99.15466631054451</v>
+        <v>98.48384687765035</v>
       </c>
       <c r="H91">
-        <v>99.43137512207032</v>
+        <v>98.03320274353027</v>
       </c>
       <c r="I91">
-        <v>97.078662109375</v>
+        <v>97.47477340698242</v>
       </c>
       <c r="L91">
-        <v>55.78870340333874</v>
+        <v>48.09844546570595</v>
       </c>
       <c r="M91">
-        <v>54.7390582090196</v>
+        <v>50.17260527963267</v>
       </c>
     </row>
     <row r="92" spans="1:13">
@@ -3912,34 +3903,34 @@
         <v>104</v>
       </c>
       <c r="B92">
-        <v>101.4248123168945</v>
+        <v>98.23982238769533</v>
       </c>
       <c r="C92">
-        <v>102.170524597168</v>
+        <v>98.23982238769533</v>
       </c>
       <c r="D92">
-        <v>99.18552398681641</v>
+        <v>92.1405792236328</v>
       </c>
       <c r="E92">
-        <v>99.9322509765625</v>
+        <v>92.1405792236328</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>185407232</v>
       </c>
       <c r="G92">
-        <v>99.22535582563705</v>
+        <v>97.90718618183057</v>
       </c>
       <c r="H92">
-        <v>99.70053176879884</v>
+        <v>97.87079429626463</v>
       </c>
       <c r="I92">
-        <v>97.28491795857748</v>
+        <v>97.38187561035156</v>
       </c>
       <c r="L92">
-        <v>51.27947075415079</v>
+        <v>32.59311680723152</v>
       </c>
       <c r="M92">
-        <v>51.76968550280824</v>
+        <v>38.92074827986333</v>
       </c>
     </row>
     <row r="93" spans="1:13">
@@ -3947,34 +3938,34 @@
         <v>105</v>
       </c>
       <c r="B93">
-        <v>99.91187286376952</v>
+        <v>92.19931793212891</v>
       </c>
       <c r="C93">
-        <v>100.2544937133789</v>
+        <v>94.74558258056641</v>
       </c>
       <c r="D93">
-        <v>97.71031188964844</v>
+        <v>92.19931793212891</v>
       </c>
       <c r="E93">
-        <v>98.25465393066406</v>
+        <v>94.2521514892578</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>138090496</v>
       </c>
       <c r="G93">
-        <v>99.13711019882132</v>
+        <v>97.57491030068759</v>
       </c>
       <c r="H93">
-        <v>99.64348945617677</v>
+        <v>97.90716629028319</v>
       </c>
       <c r="I93">
-        <v>97.46427764892579</v>
+        <v>97.33276723225912</v>
       </c>
       <c r="L93">
-        <v>46.63497204215185</v>
+        <v>40.09425971130386</v>
       </c>
       <c r="M93">
-        <v>48.65645843320352</v>
+        <v>43.62194940167824</v>
       </c>
     </row>
     <row r="94" spans="1:13">
@@ -3982,34 +3973,34 @@
         <v>106</v>
       </c>
       <c r="B94">
-        <v>98.15076446533205</v>
+        <v>94.25067138671876</v>
       </c>
       <c r="C94">
-        <v>100.2392120361328</v>
+        <v>94.63550567626952</v>
       </c>
       <c r="D94">
-        <v>97.83559417724609</v>
+        <v>91.70323944091795</v>
       </c>
       <c r="E94">
-        <v>98.81271362304688</v>
+        <v>93.02999114990234</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>50573312</v>
       </c>
       <c r="G94">
-        <v>99.10761960102364</v>
+        <v>97.16173583243437</v>
       </c>
       <c r="H94">
-        <v>99.69465179443361</v>
+        <v>97.75961647033691</v>
       </c>
       <c r="I94">
-        <v>97.59096247355143</v>
+        <v>97.20636622111003</v>
       </c>
       <c r="L94">
-        <v>48.38450034809928</v>
+        <v>37.38532165741283</v>
       </c>
       <c r="M94">
-        <v>49.73924281872505</v>
+        <v>41.62495950494816</v>
       </c>
     </row>
     <row r="95" spans="1:13">
@@ -4017,34 +4008,34 @@
         <v>107</v>
       </c>
       <c r="B95">
-        <v>98.81793212890624</v>
+        <v>93.02943420410156</v>
       </c>
       <c r="C95">
-        <v>98.94281005859376</v>
+        <v>95.16473388671876</v>
       </c>
       <c r="D95">
-        <v>97.82154083251952</v>
+        <v>92.85340881347656</v>
       </c>
       <c r="E95">
-        <v>98.26902770996094</v>
+        <v>94.36101531982422</v>
       </c>
       <c r="F95">
-        <v>0</v>
+        <v>24461056</v>
       </c>
       <c r="G95">
-        <v>99.0313839745634</v>
+        <v>96.90712487674253</v>
       </c>
       <c r="H95">
-        <v>99.64062881469728</v>
+        <v>97.75295524597166</v>
       </c>
       <c r="I95">
-        <v>97.71200536092122</v>
+        <v>97.08996251424153</v>
       </c>
       <c r="L95">
-        <v>46.70624092259395</v>
+        <v>42.17231638502211</v>
       </c>
       <c r="M95">
-        <v>48.66252254926435</v>
+        <v>44.59954573277653</v>
       </c>
     </row>
     <row r="96" spans="1:13">
@@ -4052,1157 +4043,1181 @@
         <v>108</v>
       </c>
       <c r="B96">
-        <v>98.26564788818359</v>
+        <v>94.369384765625</v>
       </c>
       <c r="C96">
-        <v>99.07412719726562</v>
+        <v>95.1442413330078</v>
       </c>
       <c r="D96">
-        <v>95.31985473632812</v>
+        <v>93.87007904052734</v>
       </c>
       <c r="E96">
-        <v>95.31985473632812</v>
+        <v>94.78509521484376</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>1253120</v>
       </c>
       <c r="G96">
-        <v>98.6939722256329</v>
+        <v>96.71421308929717</v>
       </c>
       <c r="H96">
-        <v>99.31411705017089</v>
+        <v>97.6917194366455</v>
       </c>
       <c r="I96">
-        <v>97.74947840372721</v>
+        <v>97.01979624430338</v>
       </c>
       <c r="L96">
-        <v>38.54702560750559</v>
+        <v>43.71471258870088</v>
       </c>
       <c r="M96">
-        <v>43.19965304770729</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14">
+        <v>45.55153366816996</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
       <c r="A97" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B97">
-        <v>95.27353668212891</v>
+        <v>94.78052520751952</v>
       </c>
       <c r="C97">
-        <v>96.45230865478516</v>
+        <v>94.78052520751952</v>
       </c>
       <c r="D97">
-        <v>93.1356201171875</v>
+        <v>90.91883850097656</v>
       </c>
       <c r="E97">
-        <v>94.94014739990234</v>
+        <v>91.2852020263672</v>
       </c>
       <c r="F97">
-        <v>56150784</v>
+        <v>220971520</v>
       </c>
       <c r="G97">
-        <v>98.35271542329376</v>
+        <v>96.22066662903082</v>
       </c>
       <c r="H97">
-        <v>98.96218719482422</v>
+        <v>97.36797218322754</v>
       </c>
       <c r="I97">
-        <v>97.75395584106445</v>
+        <v>96.74172388712564</v>
       </c>
       <c r="L97">
-        <v>37.59573475400683</v>
+        <v>35.03793791596644</v>
       </c>
       <c r="M97">
-        <v>42.53754021206793</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14">
+        <v>39.51639531800162</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
       <c r="A98" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B98">
-        <v>95.00450897216795</v>
+        <v>91.26354217529295</v>
       </c>
       <c r="C98">
-        <v>95.84611511230467</v>
+        <v>94.17888641357422</v>
       </c>
       <c r="D98">
-        <v>88.30984497070312</v>
+        <v>87.48365783691406</v>
       </c>
       <c r="E98">
-        <v>91.55410003662109</v>
+        <v>94.15721893310548</v>
       </c>
       <c r="F98">
-        <v>429326592</v>
+        <v>229972224</v>
       </c>
       <c r="G98">
-        <v>97.73465947905079</v>
+        <v>96.03308047485578</v>
       </c>
       <c r="H98">
-        <v>98.54000892639161</v>
+        <v>97.24634475708008</v>
       </c>
       <c r="I98">
-        <v>97.83012212117514</v>
+        <v>96.67446695963541</v>
       </c>
       <c r="L98">
-        <v>30.13488147949392</v>
+        <v>45.09805717715736</v>
       </c>
       <c r="M98">
-        <v>37.07974527643241</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14">
+        <v>45.85585980260536</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
       <c r="A99" s="1" t="s">
         <v>111</v>
       </c>
       <c r="B99">
-        <v>91.75974273681641</v>
+        <v>94.14727783203124</v>
       </c>
       <c r="C99">
-        <v>92.56803894042967</v>
+        <v>94.77047729492188</v>
       </c>
       <c r="D99">
-        <v>89.77934265136719</v>
+        <v>92.84156036376952</v>
       </c>
       <c r="E99">
-        <v>91.09522247314452</v>
+        <v>93.37915802001952</v>
       </c>
       <c r="F99">
-        <v>66613248</v>
+        <v>0</v>
       </c>
       <c r="G99">
-        <v>97.13107429669567</v>
+        <v>95.79181479714339</v>
       </c>
       <c r="H99">
-        <v>98.12687225341797</v>
+        <v>97.04222946166992</v>
       </c>
       <c r="I99">
-        <v>97.95081736246745</v>
+        <v>96.64985046386718</v>
       </c>
       <c r="L99">
-        <v>29.24990703461723</v>
+        <v>43.06545898012998</v>
       </c>
       <c r="M99">
-        <v>36.39817147824129</v>
-      </c>
-      <c r="N99" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14">
+        <v>44.49523099290442</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
       <c r="A100" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B100">
-        <v>91.10030364990234</v>
+        <v>93.393798828125</v>
       </c>
       <c r="C100">
-        <v>93.18424987792967</v>
+        <v>94.02531433105467</v>
       </c>
       <c r="D100">
-        <v>91.00672912597656</v>
+        <v>92.10289764404295</v>
       </c>
       <c r="E100">
-        <v>92.67831420898438</v>
+        <v>93.56671142578124</v>
       </c>
       <c r="F100">
-        <v>18940672</v>
+        <v>0</v>
       </c>
       <c r="G100">
-        <v>96.72627792508555</v>
+        <v>95.58953267247409</v>
       </c>
       <c r="H100">
-        <v>97.79101867675782</v>
+        <v>96.88137245178221</v>
       </c>
       <c r="I100">
-        <v>98.04708658854166</v>
+        <v>96.57651824951172</v>
       </c>
       <c r="L100">
-        <v>36.48881774664785</v>
+        <v>43.75293483365626</v>
       </c>
       <c r="M100">
-        <v>40.46400596307536</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14">
+        <v>44.919497506098</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
       <c r="A101" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B101">
-        <v>92.68089294433594</v>
+        <v>93.55034637451172</v>
       </c>
       <c r="C101">
-        <v>93.08658599853516</v>
+        <v>93.57598114013672</v>
       </c>
       <c r="D101">
-        <v>91.71003723144533</v>
+        <v>91.94075012207033</v>
       </c>
       <c r="E101">
-        <v>92.17519378662109</v>
+        <v>91.94075012207033</v>
       </c>
       <c r="F101">
         <v>0</v>
       </c>
       <c r="G101">
-        <v>96.31254300340697</v>
+        <v>95.25782516789192</v>
       </c>
       <c r="H101">
-        <v>97.41382217407227</v>
+        <v>96.59892501831055</v>
       </c>
       <c r="I101">
-        <v>98.0552993774414</v>
+        <v>96.45206425984701</v>
       </c>
       <c r="L101">
-        <v>35.20109958232278</v>
+        <v>39.14320208114658</v>
       </c>
       <c r="M101">
-        <v>39.59764280619772</v>
-      </c>
-    </row>
-    <row r="102" spans="1:14">
+        <v>41.92739627694625</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
       <c r="A102" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B102">
-        <v>92.1806640625</v>
+        <v>91.92576599121094</v>
       </c>
       <c r="C102">
-        <v>93.14630889892578</v>
+        <v>92.19716644287109</v>
       </c>
       <c r="D102">
-        <v>91.32672119140624</v>
+        <v>91.21743774414062</v>
       </c>
       <c r="E102">
-        <v>92.87489318847656</v>
+        <v>91.95760345458984</v>
       </c>
       <c r="F102">
-        <v>0</v>
+        <v>11048960</v>
       </c>
       <c r="G102">
-        <v>96.00002938386784</v>
+        <v>94.95780501213719</v>
       </c>
       <c r="H102">
-        <v>97.14761276245117</v>
+        <v>96.19685707092285</v>
       </c>
       <c r="I102">
-        <v>97.99949188232422</v>
+        <v>96.33769276936849</v>
       </c>
       <c r="L102">
-        <v>38.59172642729231</v>
+        <v>39.21787661712406</v>
       </c>
       <c r="M102">
-        <v>41.4743712110032</v>
-      </c>
-    </row>
-    <row r="103" spans="1:14">
+        <v>41.97054323331525</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
       <c r="A103" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B103">
-        <v>92.8751220703125</v>
+        <v>91.97116851806641</v>
       </c>
       <c r="C103">
-        <v>95.39176940917967</v>
+        <v>92.08259582519533</v>
       </c>
       <c r="D103">
-        <v>91.79133605957033</v>
+        <v>90.49375152587891</v>
       </c>
       <c r="E103">
-        <v>94.92751312255859</v>
+        <v>90.99130249023438</v>
       </c>
       <c r="F103">
-        <v>92176768</v>
+        <v>0</v>
       </c>
       <c r="G103">
-        <v>95.902527905567</v>
+        <v>94.59721387378239</v>
       </c>
       <c r="H103">
-        <v>97.01880111694337</v>
+        <v>95.88422546386718</v>
       </c>
       <c r="I103">
-        <v>97.85055898030599</v>
+        <v>96.25324579874675</v>
       </c>
       <c r="L103">
-        <v>47.63459801379149</v>
+        <v>36.34150196247865</v>
       </c>
       <c r="M103">
-        <v>46.70567816048285</v>
-      </c>
-    </row>
-    <row r="104" spans="1:14">
+        <v>40.12954079359479</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
       <c r="A104" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B104">
-        <v>94.90706634521484</v>
+        <v>90.98074340820312</v>
       </c>
       <c r="C104">
-        <v>96.91764831542967</v>
+        <v>92.50605010986328</v>
       </c>
       <c r="D104">
-        <v>94.84581756591795</v>
+        <v>90.82122039794922</v>
       </c>
       <c r="E104">
-        <v>95.72540283203124</v>
+        <v>92.11842346191406</v>
       </c>
       <c r="F104">
-        <v>112312576</v>
+        <v>0</v>
       </c>
       <c r="G104">
-        <v>95.88642562615465</v>
+        <v>94.37186929088527</v>
       </c>
       <c r="H104">
-        <v>97.08092193603515</v>
+        <v>95.39301147460938</v>
       </c>
       <c r="I104">
-        <v>97.78175684611003</v>
+        <v>96.12449366251627</v>
       </c>
       <c r="L104">
-        <v>50.80275781023845</v>
+        <v>41.93033737708187</v>
       </c>
       <c r="M104">
-        <v>48.62792957492117</v>
-      </c>
-    </row>
-    <row r="105" spans="1:14">
+        <v>43.25613479097073</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13">
       <c r="A105" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B105">
-        <v>95.73265075683594</v>
+        <v>92.10218048095705</v>
       </c>
       <c r="C105">
-        <v>96.822021484375</v>
+        <v>93.34904479980467</v>
       </c>
       <c r="D105">
-        <v>94.50460815429688</v>
+        <v>92.01242065429688</v>
       </c>
       <c r="E105">
-        <v>96.822021484375</v>
+        <v>92.52901458740234</v>
       </c>
       <c r="F105">
-        <v>59855872</v>
+        <v>9526400</v>
       </c>
       <c r="G105">
-        <v>95.97147979508377</v>
+        <v>94.2043370451141</v>
       </c>
       <c r="H105">
-        <v>97.09597930908203</v>
+        <v>95.03857345581055</v>
       </c>
       <c r="I105">
-        <v>97.69750798543295</v>
+        <v>96.05898615519206</v>
       </c>
       <c r="L105">
-        <v>55.01129718592111</v>
+        <v>43.94709903867661</v>
       </c>
       <c r="M105">
-        <v>51.23148159041733</v>
-      </c>
-    </row>
-    <row r="106" spans="1:14">
+        <v>44.39531902313169</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13">
       <c r="A106" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B106">
-        <v>96.87075805664062</v>
+        <v>92.58953094482422</v>
       </c>
       <c r="C106">
-        <v>98.61647796630859</v>
+        <v>93.18418884277344</v>
       </c>
       <c r="D106">
-        <v>96.14764404296876</v>
+        <v>91.92828369140624</v>
       </c>
       <c r="E106">
-        <v>97.85312652587891</v>
+        <v>92.9369659423828</v>
       </c>
       <c r="F106">
-        <v>132459136</v>
+        <v>0</v>
       </c>
       <c r="G106">
-        <v>96.14253858879242</v>
+        <v>94.08912149032034</v>
       </c>
       <c r="H106">
-        <v>96.88698463439941</v>
+        <v>94.6447410583496</v>
       </c>
       <c r="I106">
-        <v>97.56427586873373</v>
+        <v>95.95655797322591</v>
       </c>
       <c r="L106">
-        <v>58.74442677795744</v>
+        <v>46.04176304044632</v>
       </c>
       <c r="M106">
-        <v>53.61202741802518</v>
-      </c>
-    </row>
-    <row r="107" spans="1:14">
+        <v>45.56465558745243</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13">
       <c r="A107" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B107">
-        <v>98.07691955566406</v>
+        <v>92.91424560546876</v>
       </c>
       <c r="C107">
-        <v>98.32773590087891</v>
+        <v>92.92072296142578</v>
       </c>
       <c r="D107">
-        <v>96.7257843017578</v>
+        <v>91.87586975097656</v>
       </c>
       <c r="E107">
-        <v>96.89008331298828</v>
+        <v>92.39015960693359</v>
       </c>
       <c r="F107">
-        <v>42264448</v>
+        <v>0</v>
       </c>
       <c r="G107">
-        <v>96.21049720008295</v>
+        <v>93.93467041001244</v>
       </c>
       <c r="H107">
-        <v>96.72542343139648</v>
+        <v>94.16465415954589</v>
       </c>
       <c r="I107">
-        <v>97.3946538289388</v>
+        <v>95.77755839029948</v>
       </c>
       <c r="L107">
-        <v>54.03328320683151</v>
+        <v>43.58570818599738</v>
       </c>
       <c r="M107">
-        <v>51.10296959416648</v>
-      </c>
-    </row>
-    <row r="108" spans="1:14">
+        <v>44.22226469338258</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13">
       <c r="A108" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B108">
-        <v>96.82366180419922</v>
+        <v>92.38510894775391</v>
       </c>
       <c r="C108">
-        <v>99.62737274169922</v>
+        <v>93.71378326416016</v>
       </c>
       <c r="D108">
-        <v>96.43331909179688</v>
+        <v>92.33180236816406</v>
       </c>
       <c r="E108">
-        <v>99.62737274169922</v>
+        <v>93.06238555908205</v>
       </c>
       <c r="F108">
-        <v>136661248</v>
+        <v>10790272</v>
       </c>
       <c r="G108">
-        <v>96.5211222493208</v>
+        <v>93.85537178720058</v>
       </c>
       <c r="H108">
-        <v>96.71701850891114</v>
+        <v>93.8264060974121</v>
       </c>
       <c r="I108">
-        <v>97.38231074015299</v>
+        <v>95.65997899373373</v>
       </c>
       <c r="L108">
-        <v>63.41513544102182</v>
+        <v>47.46181255263433</v>
       </c>
       <c r="M108">
-        <v>57.22996646641275</v>
-      </c>
-    </row>
-    <row r="109" spans="1:14">
+        <v>46.31618754562586</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13">
       <c r="A109" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B109">
-        <v>99.6294403076172</v>
+        <v>93.06819152832033</v>
       </c>
       <c r="C109">
-        <v>102.173583984375</v>
+        <v>93.57586669921876</v>
       </c>
       <c r="D109">
-        <v>96.1749267578125</v>
+        <v>92.22446441650391</v>
       </c>
       <c r="E109">
-        <v>96.1749267578125</v>
+        <v>92.50946807861328</v>
       </c>
       <c r="F109">
-        <v>513023744</v>
+        <v>14097280</v>
       </c>
       <c r="G109">
-        <v>96.48964993191095</v>
+        <v>93.73301690460173</v>
       </c>
       <c r="H109">
-        <v>96.30117263793946</v>
+        <v>93.42049179077148</v>
       </c>
       <c r="I109">
-        <v>97.27620976765951</v>
+        <v>95.49491246541341</v>
       </c>
       <c r="L109">
-        <v>49.17413430355342</v>
+        <v>44.6246838239666</v>
       </c>
       <c r="M109">
-        <v>48.90619898067863</v>
-      </c>
-    </row>
-    <row r="110" spans="1:14">
+        <v>44.82560613999956</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13">
       <c r="A110" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B110">
-        <v>96.17591857910156</v>
+        <v>92.49874114990234</v>
       </c>
       <c r="C110">
-        <v>97.53977203369141</v>
+        <v>92.78092193603516</v>
       </c>
       <c r="D110">
-        <v>93.89056396484376</v>
+        <v>92.05858612060548</v>
       </c>
       <c r="E110">
-        <v>94.11765289306641</v>
+        <v>92.33547973632812</v>
       </c>
       <c r="F110">
-        <v>101410048</v>
+        <v>5064192</v>
       </c>
       <c r="G110">
-        <v>96.27401383747052</v>
+        <v>93.60596807112231</v>
       </c>
       <c r="H110">
-        <v>95.97542037963868</v>
+        <v>93.09925003051758</v>
       </c>
       <c r="I110">
-        <v>97.10028533935547</v>
+        <v>95.34663340250651</v>
       </c>
       <c r="L110">
-        <v>42.73987468858721</v>
+        <v>43.69992649794273</v>
       </c>
       <c r="M110">
-        <v>44.73119539300829</v>
-      </c>
-    </row>
-    <row r="111" spans="1:14">
+        <v>44.34201004559952</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13">
       <c r="A111" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B111">
-        <v>94.03654479980467</v>
+        <v>92.34517669677734</v>
       </c>
       <c r="C111">
-        <v>96.82123565673828</v>
+        <v>92.5188446044922</v>
       </c>
       <c r="D111">
-        <v>93.90121459960938</v>
+        <v>90.87897491455078</v>
       </c>
       <c r="E111">
-        <v>95.76667785644533</v>
+        <v>90.87897491455078</v>
       </c>
       <c r="F111">
-        <v>36899328</v>
+        <v>21535360</v>
       </c>
       <c r="G111">
-        <v>96.22789238465003</v>
+        <v>93.35805960234308</v>
       </c>
       <c r="H111">
-        <v>95.6905574798584</v>
+        <v>92.73038253784179</v>
       </c>
       <c r="I111">
-        <v>96.96853713989258</v>
+        <v>95.12294260660808</v>
       </c>
       <c r="L111">
-        <v>48.78302535664497</v>
+        <v>36.56399643146759</v>
       </c>
       <c r="M111">
-        <v>48.5244642261034</v>
-      </c>
-    </row>
-    <row r="112" spans="1:14">
+        <v>40.41158962267289</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13">
       <c r="A112" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B112">
-        <v>95.75936126708984</v>
+        <v>90.90369415283205</v>
       </c>
       <c r="C112">
-        <v>96.54142761230467</v>
+        <v>91.63616180419922</v>
       </c>
       <c r="D112">
-        <v>95.10198974609376</v>
+        <v>88.44515991210938</v>
       </c>
       <c r="E112">
-        <v>95.67436981201172</v>
+        <v>89.31113433837891</v>
       </c>
       <c r="F112">
-        <v>0</v>
+        <v>194594688</v>
       </c>
       <c r="G112">
-        <v>96.17757215077383</v>
+        <v>92.99015730561906</v>
       </c>
       <c r="H112">
-        <v>95.47766342163087</v>
+        <v>92.5889102935791</v>
       </c>
       <c r="I112">
-        <v>96.88438008626302</v>
+        <v>94.76668167114258</v>
       </c>
       <c r="L112">
-        <v>48.46094233960201</v>
+        <v>30.52728338060778</v>
       </c>
       <c r="M112">
-        <v>48.32452493488571</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13">
+        <v>36.64606386657197</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14">
       <c r="A113" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B113">
-        <v>95.60670471191406</v>
+        <v>89.30735778808594</v>
       </c>
       <c r="C113">
-        <v>95.86579895019533</v>
+        <v>89.97715759277344</v>
       </c>
       <c r="D113">
-        <v>94.51031494140624</v>
+        <v>88.53067779541016</v>
       </c>
       <c r="E113">
-        <v>95.38874816894533</v>
+        <v>89.05840301513672</v>
       </c>
       <c r="F113">
-        <v>19119104</v>
+        <v>130774016</v>
       </c>
       <c r="G113">
-        <v>96.10586087969851</v>
+        <v>92.63272509739339</v>
       </c>
       <c r="H113">
-        <v>95.33436813354493</v>
+        <v>92.32922286987305</v>
       </c>
       <c r="I113">
-        <v>96.81388015747071</v>
+        <v>94.49383061726888</v>
       </c>
       <c r="L113">
-        <v>47.37219602406653</v>
+        <v>29.63985633021108</v>
       </c>
       <c r="M113">
-        <v>47.67001099967462</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13">
+        <v>36.06272609743258</v>
+      </c>
+      <c r="N113" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14">
       <c r="A114" s="1" t="s">
         <v>126</v>
       </c>
       <c r="B114">
-        <v>95.38737487792967</v>
+        <v>89.064208984375</v>
       </c>
       <c r="C114">
-        <v>95.70668792724609</v>
+        <v>89.08988189697266</v>
       </c>
       <c r="D114">
-        <v>93.24111175537109</v>
+        <v>86.55192565917969</v>
       </c>
       <c r="E114">
-        <v>93.52471160888672</v>
+        <v>88.42783355712891</v>
       </c>
       <c r="F114">
-        <v>23725568</v>
+        <v>253145088</v>
       </c>
       <c r="G114">
-        <v>95.87121094598835</v>
+        <v>92.25046223009662</v>
       </c>
       <c r="H114">
-        <v>95.06996803283691</v>
+        <v>92.09911499023437</v>
       </c>
       <c r="I114">
-        <v>96.78193766276041</v>
+        <v>94.0433349609375</v>
       </c>
       <c r="L114">
-        <v>40.66459622323784</v>
+        <v>27.40380506223975</v>
       </c>
       <c r="M114">
-        <v>43.52663458150545</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13">
+        <v>34.58354674260541</v>
+      </c>
+      <c r="N114" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14">
       <c r="A115" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B115">
-        <v>93.53660583496094</v>
+        <v>88.40828704833984</v>
       </c>
       <c r="C115">
-        <v>96.51332092285156</v>
+        <v>89.78891754150391</v>
       </c>
       <c r="D115">
-        <v>93.46531677246094</v>
+        <v>85.80907440185547</v>
       </c>
       <c r="E115">
-        <v>95.98098754882812</v>
+        <v>87.1187744140625</v>
       </c>
       <c r="F115">
-        <v>0</v>
+        <v>310467200</v>
       </c>
       <c r="G115">
-        <v>95.8811906371556</v>
+        <v>91.7839451559117</v>
       </c>
       <c r="H115">
-        <v>94.95556602478027</v>
+        <v>91.73700294494628</v>
       </c>
       <c r="I115">
-        <v>96.76394144694011</v>
+        <v>93.62670160929362</v>
       </c>
       <c r="L115">
-        <v>50.958549306953</v>
+        <v>23.29876481660227</v>
       </c>
       <c r="M115">
-        <v>49.7274329714886</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13">
+        <v>31.67859320586359</v>
+      </c>
+      <c r="N115" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14">
       <c r="A116" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B116">
-        <v>95.98088836669922</v>
+        <v>87.14884185791016</v>
       </c>
       <c r="C116">
-        <v>96.35294342041016</v>
+        <v>87.38318634033203</v>
       </c>
       <c r="D116">
-        <v>93.65264892578124</v>
+        <v>82.65976715087891</v>
       </c>
       <c r="E116">
-        <v>94.49423980712891</v>
+        <v>83.54784393310547</v>
       </c>
       <c r="F116">
-        <v>0</v>
+        <v>577768192</v>
       </c>
       <c r="G116">
-        <v>95.75510419806226</v>
+        <v>91.03520868111111</v>
       </c>
       <c r="H116">
-        <v>94.91428527832031</v>
+        <v>91.17514038085938</v>
       </c>
       <c r="I116">
-        <v>96.51264877319336</v>
+        <v>93.05117594401041</v>
       </c>
       <c r="L116">
-        <v>45.57456849277872</v>
+        <v>15.96126032376542</v>
       </c>
       <c r="M116">
-        <v>46.40601854544377</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13">
+        <v>25.40871421732133</v>
+      </c>
+      <c r="N116" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14">
       <c r="A117" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B117">
-        <v>94.43834686279295</v>
+        <v>83.53693389892578</v>
       </c>
       <c r="C117">
-        <v>96.09483337402344</v>
+        <v>85.99843597412109</v>
       </c>
       <c r="D117">
-        <v>94.3966827392578</v>
+        <v>83.32959747314453</v>
       </c>
       <c r="E117">
-        <v>96.0098114013672</v>
+        <v>83.50541687011719</v>
       </c>
       <c r="F117">
-        <v>23887232</v>
+        <v>297277440</v>
       </c>
       <c r="G117">
-        <v>95.77825939836271</v>
+        <v>90.35068215283894</v>
       </c>
       <c r="H117">
-        <v>94.96776847839355</v>
+        <v>90.78615112304688</v>
       </c>
       <c r="I117">
-        <v>96.3755989074707</v>
+        <v>92.43495992024739</v>
       </c>
       <c r="L117">
-        <v>51.45637029081328</v>
+        <v>15.89435318812349</v>
       </c>
       <c r="M117">
-        <v>50.06732210343943</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13">
+        <v>25.34453066031017</v>
+      </c>
+      <c r="N117" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14">
       <c r="A118" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B118">
-        <v>96.03652191162109</v>
+        <v>83.62184143066406</v>
       </c>
       <c r="C118">
-        <v>97.9650421142578</v>
+        <v>85.61627960205078</v>
       </c>
       <c r="D118">
-        <v>95.39481353759766</v>
+        <v>83.62184143066406</v>
       </c>
       <c r="E118">
-        <v>97.76014709472656</v>
+        <v>85.20050811767578</v>
       </c>
       <c r="F118">
-        <v>90039040</v>
+        <v>59025664</v>
       </c>
       <c r="G118">
-        <v>95.95843100712305</v>
+        <v>89.88248451327865</v>
       </c>
       <c r="H118">
-        <v>95.27807083129883</v>
+        <v>90.33831558227538</v>
       </c>
       <c r="I118">
-        <v>96.30775477091471</v>
+        <v>91.947398630778</v>
       </c>
       <c r="L118">
-        <v>57.43327289236268</v>
+        <v>29.22852738580315</v>
       </c>
       <c r="M118">
-        <v>53.97769071651052</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13">
+        <v>32.66314280421776</v>
+      </c>
+      <c r="N118" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14">
       <c r="A119" s="1" t="s">
         <v>131</v>
       </c>
       <c r="B119">
-        <v>97.71452331542967</v>
+        <v>85.19129180908203</v>
       </c>
       <c r="C119">
-        <v>97.96287536621094</v>
+        <v>85.84018707275391</v>
       </c>
       <c r="D119">
-        <v>96.40822601318359</v>
+        <v>82.4774169921875</v>
       </c>
       <c r="E119">
-        <v>96.58976745605467</v>
+        <v>82.59522247314453</v>
       </c>
       <c r="F119">
-        <v>89275392</v>
+        <v>30285568</v>
       </c>
       <c r="G119">
-        <v>96.01582522975319</v>
+        <v>89.22000614599374</v>
       </c>
       <c r="H119">
-        <v>95.55279808044433</v>
+        <v>89.79911880493164</v>
       </c>
       <c r="I119">
-        <v>96.04435221354167</v>
+        <v>91.34631423950195</v>
       </c>
       <c r="L119">
-        <v>52.5647576933155</v>
+        <v>22.93999756996043</v>
       </c>
       <c r="M119">
-        <v>51.09623573296169</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13">
+        <v>28.10310578467331</v>
+      </c>
+      <c r="N119" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14">
       <c r="A120" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B120">
-        <v>96.60636138916016</v>
+        <v>82.63655853271484</v>
       </c>
       <c r="C120">
-        <v>97.46146392822266</v>
+        <v>83.26882171630859</v>
       </c>
       <c r="D120">
-        <v>94.47268676757812</v>
+        <v>79.16059875488281</v>
       </c>
       <c r="E120">
-        <v>97.46146392822266</v>
+        <v>79.89727020263672</v>
       </c>
       <c r="F120">
-        <v>68201728</v>
+        <v>352510464</v>
       </c>
       <c r="G120">
-        <v>96.14724692961404</v>
+        <v>88.37248469659764</v>
       </c>
       <c r="H120">
-        <v>95.79195556640624</v>
+        <v>89.11564674377442</v>
       </c>
       <c r="I120">
-        <v>95.93864440917969</v>
+        <v>90.71754608154296</v>
       </c>
       <c r="L120">
-        <v>55.71051117156787</v>
+        <v>18.34240987674354</v>
       </c>
       <c r="M120">
-        <v>53.10419433155531</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13">
+        <v>24.31706601398921</v>
+      </c>
+      <c r="N120" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14">
       <c r="A121" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B121">
-        <v>97.42953491210938</v>
+        <v>80.12245941162109</v>
       </c>
       <c r="C121">
-        <v>97.58408355712891</v>
+        <v>82.94814300537109</v>
       </c>
       <c r="D121">
-        <v>96.20689392089844</v>
+        <v>79.06669616699219</v>
       </c>
       <c r="E121">
-        <v>96.78385162353516</v>
+        <v>82.65483093261719</v>
       </c>
       <c r="F121">
-        <v>13128448</v>
+        <v>325295104</v>
       </c>
       <c r="G121">
-        <v>96.20512008360687</v>
+        <v>87.85269799078122</v>
       </c>
       <c r="H121">
-        <v>96.02238845825195</v>
+        <v>88.65135078430175</v>
       </c>
       <c r="I121">
-        <v>95.7826416015625</v>
+        <v>90.19749628702799</v>
       </c>
       <c r="L121">
-        <v>52.65667648078526</v>
+        <v>33.63608894649686</v>
       </c>
       <c r="M121">
-        <v>51.33951851250109</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13">
+        <v>34.09064097944128</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14">
       <c r="A122" s="1" t="s">
         <v>134</v>
       </c>
       <c r="B122">
-        <v>96.77325439453124</v>
+        <v>82.68437957763672</v>
       </c>
       <c r="C122">
-        <v>98.59530639648438</v>
+        <v>83.47123718261719</v>
       </c>
       <c r="D122">
-        <v>96.77325439453124</v>
+        <v>80.96070098876953</v>
       </c>
       <c r="E122">
-        <v>97.58969879150391</v>
+        <v>81.05046081542969</v>
       </c>
       <c r="F122">
-        <v>41585152</v>
+        <v>65889024</v>
       </c>
       <c r="G122">
-        <v>96.33099087523387</v>
+        <v>87.23431279302199</v>
       </c>
       <c r="H122">
-        <v>96.25812873840331</v>
+        <v>88.10599365234376</v>
       </c>
       <c r="I122">
-        <v>95.70455652872721</v>
+        <v>89.82782567342123</v>
       </c>
       <c r="L122">
-        <v>55.89152776212217</v>
+        <v>29.96299047957939</v>
       </c>
       <c r="M122">
-        <v>53.32592407349828</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13">
+        <v>31.53873907185385</v>
+      </c>
+      <c r="N122" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14">
       <c r="A123" s="1" t="s">
         <v>135</v>
       </c>
       <c r="B123">
-        <v>97.61580657958984</v>
+        <v>81.02459716796875</v>
       </c>
       <c r="C123">
-        <v>100.7749404907227</v>
+        <v>84.2620849609375</v>
       </c>
       <c r="D123">
-        <v>97.486083984375</v>
+        <v>80.46012878417969</v>
       </c>
       <c r="E123">
-        <v>99.99896240234376</v>
+        <v>84.2620849609375</v>
       </c>
       <c r="F123">
-        <v>235408896</v>
+        <v>57221632</v>
       </c>
       <c r="G123">
-        <v>96.66444283224386</v>
+        <v>86.96411026283248</v>
       </c>
       <c r="H123">
-        <v>96.51170120239257</v>
+        <v>87.7695327758789</v>
       </c>
       <c r="I123">
-        <v>95.76270014444987</v>
+        <v>89.49482345581055</v>
       </c>
       <c r="L123">
-        <v>64.13408005892001</v>
+        <v>43.78706362709178</v>
       </c>
       <c r="M123">
-        <v>58.74785937076739</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13">
+        <v>41.0514965903991</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14">
       <c r="A124" s="1" t="s">
         <v>136</v>
       </c>
       <c r="B124">
-        <v>99.99933624267578</v>
+        <v>84.28726196289062</v>
       </c>
       <c r="C124">
-        <v>100.1706390380859</v>
+        <v>85.51583099365234</v>
       </c>
       <c r="D124">
-        <v>97.23290252685548</v>
+        <v>83.47469329833984</v>
       </c>
       <c r="E124">
-        <v>97.24393463134766</v>
+        <v>83.47469329833984</v>
       </c>
       <c r="F124">
-        <v>81223296</v>
+        <v>162866176</v>
       </c>
       <c r="G124">
-        <v>96.71712390488966</v>
+        <v>86.6468905387877</v>
       </c>
       <c r="H124">
-        <v>96.5876277923584</v>
+        <v>87.3373462677002</v>
       </c>
       <c r="I124">
-        <v>95.71040751139323</v>
+        <v>89.17631352742514</v>
       </c>
       <c r="L124">
-        <v>51.70436698899093</v>
+        <v>41.52632404772562</v>
       </c>
       <c r="M124">
-        <v>51.39545091137185</v>
-      </c>
-    </row>
-    <row r="125" spans="1:13">
+        <v>39.59873733223661</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14">
       <c r="A125" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B125">
-        <v>97.23810577392578</v>
+        <v>83.47649383544922</v>
       </c>
       <c r="C125">
-        <v>102.4337387084961</v>
+        <v>86.46942138671875</v>
       </c>
       <c r="D125">
-        <v>97.05516052246094</v>
+        <v>83.41868591308594</v>
       </c>
       <c r="E125">
-        <v>101.9427032470703</v>
+        <v>86.07321929931641</v>
       </c>
       <c r="F125">
-        <v>396279552</v>
+        <v>129547264</v>
       </c>
       <c r="G125">
-        <v>97.19217657236062</v>
+        <v>86.59473860792667</v>
       </c>
       <c r="H125">
-        <v>96.84366188049316</v>
+        <v>87.01455650329589</v>
       </c>
       <c r="I125">
-        <v>95.83286336263021</v>
+        <v>88.90005366007487</v>
       </c>
       <c r="L125">
-        <v>64.79558305032809</v>
+        <v>50.93203338765036</v>
       </c>
       <c r="M125">
-        <v>60.479896269784</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13">
+        <v>46.34682922905849</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14">
       <c r="A126" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B126">
-        <v>101.9644088745117</v>
+        <v>86.07527923583984</v>
       </c>
       <c r="C126">
-        <v>102.4017639160156</v>
+        <v>88.1689453125</v>
       </c>
       <c r="D126">
-        <v>99.46280670166016</v>
+        <v>85.9818115234375</v>
       </c>
       <c r="E126">
-        <v>99.61777496337891</v>
+        <v>87.11084747314453</v>
       </c>
       <c r="F126">
-        <v>277350400</v>
+        <v>0</v>
       </c>
       <c r="G126">
-        <v>97.41268551699865</v>
+        <v>86.64165759567375</v>
       </c>
       <c r="H126">
-        <v>96.93189430236816</v>
+        <v>86.72325057983399</v>
       </c>
       <c r="I126">
-        <v>95.97612737019857</v>
+        <v>88.64424540201823</v>
       </c>
       <c r="L126">
-        <v>56.30058880936784</v>
+        <v>54.23874481582902</v>
       </c>
       <c r="M126">
-        <v>55.00204174116702</v>
-      </c>
-    </row>
-    <row r="127" spans="1:13">
+        <v>48.80634969206316</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14">
       <c r="A127" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B127">
-        <v>99.53460693359376</v>
+        <v>87.12303161621094</v>
       </c>
       <c r="C127">
-        <v>100.9358444213867</v>
+        <v>87.83754730224609</v>
       </c>
       <c r="D127">
-        <v>97.59458923339844</v>
+        <v>85.35543823242188</v>
       </c>
       <c r="E127">
-        <v>100.8136138916016</v>
+        <v>87.00981140136719</v>
       </c>
       <c r="F127">
-        <v>360398080</v>
+        <v>23296</v>
       </c>
       <c r="G127">
-        <v>97.72186082378073</v>
+        <v>86.67512612346407</v>
       </c>
       <c r="H127">
-        <v>97.12807083129883</v>
+        <v>86.45423316955566</v>
       </c>
       <c r="I127">
-        <v>96.17190958658854</v>
+        <v>88.50173238118489</v>
       </c>
       <c r="L127">
-        <v>59.38201460742499</v>
+        <v>53.84127805496112</v>
       </c>
       <c r="M127">
-        <v>57.15175391643844</v>
-      </c>
-    </row>
-    <row r="128" spans="1:13">
+        <v>48.57285979045601</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14">
       <c r="A128" s="1" t="s">
         <v>140</v>
       </c>
       <c r="B128">
-        <v>100.7400054931641</v>
+        <v>87.0169677734375</v>
       </c>
       <c r="C128">
-        <v>102.0604248046875</v>
+        <v>87.67506408691406</v>
       </c>
       <c r="D128">
-        <v>100.4187927246094</v>
+        <v>85.73739624023438</v>
       </c>
       <c r="E128">
-        <v>101.9918975830078</v>
+        <v>86.24967193603516</v>
       </c>
       <c r="F128">
-        <v>177807104</v>
+        <v>0</v>
       </c>
       <c r="G128">
-        <v>98.11004598371046</v>
+        <v>86.63644847006144</v>
       </c>
       <c r="H128">
-        <v>97.24629707336426</v>
+        <v>86.11359748840331</v>
       </c>
       <c r="I128">
-        <v>96.5198361714681</v>
+        <v>88.23814748128255</v>
       </c>
       <c r="L128">
-        <v>62.32670372986195</v>
+        <v>50.69685102971772</v>
       </c>
       <c r="M128">
-        <v>59.21906824616266</v>
+        <v>46.76038745043417</v>
       </c>
     </row>
     <row r="129" spans="1:13">
@@ -5210,34 +5225,34 @@
         <v>141</v>
       </c>
       <c r="B129">
-        <v>102.0294952392578</v>
+        <v>86.24577331542969</v>
       </c>
       <c r="C129">
-        <v>102.9231414794922</v>
+        <v>89.26772308349609</v>
       </c>
       <c r="D129">
-        <v>99.71507263183594</v>
+        <v>86.08899688720703</v>
       </c>
       <c r="E129">
-        <v>99.8273468017578</v>
+        <v>88.74338531494141</v>
       </c>
       <c r="F129">
-        <v>100120320</v>
+        <v>29734400</v>
       </c>
       <c r="G129">
-        <v>98.26616423989658</v>
+        <v>86.82798818323235</v>
       </c>
       <c r="H129">
-        <v>97.42891807556153</v>
+        <v>85.92529335021973</v>
       </c>
       <c r="I129">
-        <v>96.81090698242187</v>
+        <v>88.08362172444662</v>
       </c>
       <c r="L129">
-        <v>54.20526487793914</v>
+        <v>59.4393707478914</v>
       </c>
       <c r="M129">
-        <v>54.05912339272815</v>
+        <v>52.96149371318307</v>
       </c>
     </row>
     <row r="130" spans="1:13">
@@ -5245,34 +5260,34 @@
         <v>142</v>
       </c>
       <c r="B130">
-        <v>99.8273468017578</v>
+        <v>88.73780059814453</v>
       </c>
       <c r="C130">
-        <v>101.3633651733398</v>
+        <v>89.37682342529297</v>
       </c>
       <c r="D130">
-        <v>99.79608154296876</v>
+        <v>87.78644561767578</v>
       </c>
       <c r="E130">
-        <v>100.6277542114258</v>
+        <v>88.56333923339844</v>
       </c>
       <c r="F130">
-        <v>91218944</v>
+        <v>2589952</v>
       </c>
       <c r="G130">
-        <v>98.48085423730832</v>
+        <v>86.98574736961108</v>
       </c>
       <c r="H130">
-        <v>97.75442314147949</v>
+        <v>85.73668632507324</v>
       </c>
       <c r="I130">
-        <v>97.07588831583659</v>
+        <v>87.91684265136719</v>
       </c>
       <c r="L130">
-        <v>56.5600124395676</v>
+        <v>58.59542346270983</v>
       </c>
       <c r="M130">
-        <v>55.59974834217794</v>
+        <v>52.48615751447065</v>
       </c>
     </row>
     <row r="131" spans="1:13">
@@ -5280,34 +5295,34 @@
         <v>143</v>
       </c>
       <c r="B131">
-        <v>100.6430130004883</v>
+        <v>88.55800628662109</v>
       </c>
       <c r="C131">
-        <v>101.0454483032227</v>
+        <v>88.55800628662109</v>
       </c>
       <c r="D131">
-        <v>98.38793182373048</v>
+        <v>86.84970855712891</v>
       </c>
       <c r="E131">
-        <v>98.76031494140624</v>
+        <v>88.22238922119141</v>
       </c>
       <c r="F131">
-        <v>0</v>
+        <v>4312832</v>
       </c>
       <c r="G131">
-        <v>98.50625975586267</v>
+        <v>87.09816935611838</v>
       </c>
       <c r="H131">
-        <v>97.90410499572754</v>
+        <v>85.60385704040527</v>
       </c>
       <c r="I131">
-        <v>97.29539235432942</v>
+        <v>87.79289728800455</v>
       </c>
       <c r="L131">
-        <v>49.83420747127403</v>
+        <v>56.87505102743894</v>
       </c>
       <c r="M131">
-        <v>51.27901564925127</v>
+        <v>51.54274863888883</v>
       </c>
     </row>
     <row r="132" spans="1:13">
@@ -5315,34 +5330,34 @@
         <v>144</v>
       </c>
       <c r="B132">
-        <v>98.76564788818359</v>
+        <v>88.16857147216797</v>
       </c>
       <c r="C132">
-        <v>99.10459136962891</v>
+        <v>89.11009979248047</v>
       </c>
       <c r="D132">
-        <v>97.8903350830078</v>
+        <v>86.73002624511719</v>
       </c>
       <c r="E132">
-        <v>98.25632476806641</v>
+        <v>88.93824005126953</v>
       </c>
       <c r="F132">
-        <v>0</v>
+        <v>23975296</v>
       </c>
       <c r="G132">
-        <v>98.48353839333573</v>
+        <v>87.26544851022302</v>
       </c>
       <c r="H132">
-        <v>98.03320274353027</v>
+        <v>85.5852123260498</v>
       </c>
       <c r="I132">
-        <v>97.47477340698242</v>
+        <v>87.69225184122722</v>
       </c>
       <c r="L132">
-        <v>48.09765936155199</v>
+        <v>59.67179081189433</v>
       </c>
       <c r="M132">
-        <v>50.14639479561455</v>
+        <v>53.43521968034277</v>
       </c>
     </row>
     <row r="133" spans="1:13">
@@ -5350,34 +5365,34 @@
         <v>145</v>
       </c>
       <c r="B133">
-        <v>98.23982238769533</v>
+        <v>88.94561767578125</v>
       </c>
       <c r="C133">
-        <v>98.23982238769533</v>
+        <v>89.19389343261719</v>
       </c>
       <c r="D133">
-        <v>92.1405792236328</v>
+        <v>86.06172943115234</v>
       </c>
       <c r="E133">
-        <v>92.1405792236328</v>
+        <v>86.47743225097656</v>
       </c>
       <c r="F133">
-        <v>185407232</v>
+        <v>0</v>
       </c>
       <c r="G133">
-        <v>97.90690574154456</v>
+        <v>87.19381066847335</v>
       </c>
       <c r="H133">
-        <v>97.87079429626465</v>
+        <v>85.4561637878418</v>
       </c>
       <c r="I133">
-        <v>97.38187561035156</v>
+        <v>87.54178949991862</v>
       </c>
       <c r="L133">
-        <v>32.59297018600606</v>
+        <v>47.70682053469118</v>
       </c>
       <c r="M133">
-        <v>38.91419245765088</v>
+        <v>46.68541052177963</v>
       </c>
     </row>
     <row r="134" spans="1:13">
@@ -5385,34 +5400,34 @@
         <v>146</v>
       </c>
       <c r="B134">
-        <v>92.19931793212891</v>
+        <v>86.42098236083984</v>
       </c>
       <c r="C134">
-        <v>94.74558258056641</v>
+        <v>88.04479217529297</v>
       </c>
       <c r="D134">
-        <v>92.19931793212891</v>
+        <v>85.273681640625</v>
       </c>
       <c r="E134">
-        <v>94.2521514892578</v>
+        <v>87.73995971679688</v>
       </c>
       <c r="F134">
-        <v>138090496</v>
+        <v>63095424</v>
       </c>
       <c r="G134">
-        <v>97.57465535497303</v>
+        <v>87.24346058195731</v>
       </c>
       <c r="H134">
-        <v>97.90716629028319</v>
+        <v>85.4217700958252</v>
       </c>
       <c r="I134">
-        <v>97.33276723225912</v>
+        <v>87.39584070841471</v>
       </c>
       <c r="L134">
-        <v>40.09396341509122</v>
+        <v>53.13111028762474</v>
       </c>
       <c r="M134">
-        <v>43.61058127744082</v>
+        <v>50.16363851089602</v>
       </c>
     </row>
     <row r="135" spans="1:13">
@@ -5420,34 +5435,34 @@
         <v>147</v>
       </c>
       <c r="B135">
-        <v>94.25067138671876</v>
+        <v>87.73807525634766</v>
       </c>
       <c r="C135">
-        <v>94.63550567626952</v>
+        <v>87.73807525634766</v>
       </c>
       <c r="D135">
-        <v>91.70323944091795</v>
+        <v>86.56836700439453</v>
       </c>
       <c r="E135">
-        <v>93.02999114990234</v>
+        <v>86.91607666015625</v>
       </c>
       <c r="F135">
-        <v>50573312</v>
+        <v>0</v>
       </c>
       <c r="G135">
-        <v>97.16150406360296</v>
+        <v>87.21369840724812</v>
       </c>
       <c r="H135">
-        <v>97.75961647033691</v>
+        <v>85.41163520812988</v>
       </c>
       <c r="I135">
-        <v>97.20636622111003</v>
+        <v>87.20874277750652</v>
       </c>
       <c r="L135">
-        <v>37.38510127512763</v>
+        <v>49.37143094412864</v>
       </c>
       <c r="M135">
-        <v>41.61626625863131</v>
+        <v>47.9645545468764</v>
       </c>
     </row>
     <row r="136" spans="1:13">
@@ -5455,34 +5470,34 @@
         <v>148</v>
       </c>
       <c r="B136">
-        <v>93.02943420410156</v>
+        <v>86.88945007324219</v>
       </c>
       <c r="C136">
-        <v>95.16473388671876</v>
+        <v>88.13349914550781</v>
       </c>
       <c r="D136">
-        <v>92.85340881347656</v>
+        <v>86.14839172363281</v>
       </c>
       <c r="E136">
-        <v>94.36101531982422</v>
+        <v>87.82004547119141</v>
       </c>
       <c r="F136">
-        <v>24461056</v>
+        <v>41625856</v>
       </c>
       <c r="G136">
-        <v>96.90691417780489</v>
+        <v>87.26882086760659</v>
       </c>
       <c r="H136">
-        <v>97.75295524597166</v>
+        <v>85.62524528503418</v>
       </c>
       <c r="I136">
-        <v>97.08996251424153</v>
+        <v>87.03817876180013</v>
       </c>
       <c r="L136">
-        <v>42.17202162900137</v>
+        <v>53.43839431425932</v>
       </c>
       <c r="M136">
-        <v>44.58824844417097</v>
+        <v>50.52721854873267</v>
       </c>
     </row>
     <row r="137" spans="1:13">
@@ -5490,34 +5505,34 @@
         <v>149</v>
       </c>
       <c r="B137">
-        <v>94.369384765625</v>
+        <v>87.82937622070312</v>
       </c>
       <c r="C137">
-        <v>95.1442413330078</v>
+        <v>88.26325988769531</v>
       </c>
       <c r="D137">
-        <v>93.87007904052734</v>
+        <v>86.78408050537109</v>
       </c>
       <c r="E137">
-        <v>94.78509521484376</v>
+        <v>86.96962738037109</v>
       </c>
       <c r="F137">
-        <v>1253120</v>
+        <v>0</v>
       </c>
       <c r="G137">
-        <v>96.71402154480842</v>
+        <v>87.2416214596761</v>
       </c>
       <c r="H137">
-        <v>97.69171943664551</v>
+        <v>85.79845581054687</v>
       </c>
       <c r="I137">
-        <v>97.01979624430338</v>
+        <v>86.85749435424805</v>
       </c>
       <c r="L137">
-        <v>43.71439708605914</v>
+        <v>49.2512011098819</v>
       </c>
       <c r="M137">
-        <v>45.5394720274242</v>
+        <v>48.12597790316169</v>
       </c>
     </row>
     <row r="138" spans="1:13">
@@ -5525,34 +5540,34 @@
         <v>150</v>
       </c>
       <c r="B138">
-        <v>94.78052520751952</v>
+        <v>86.97789001464844</v>
       </c>
       <c r="C138">
-        <v>94.78052520751952</v>
+        <v>92.10391998291016</v>
       </c>
       <c r="D138">
-        <v>90.91883850097656</v>
+        <v>86.97789001464844</v>
       </c>
       <c r="E138">
-        <v>91.2852020263672</v>
+        <v>92.10391998291016</v>
       </c>
       <c r="F138">
-        <v>220971520</v>
+        <v>276332416</v>
       </c>
       <c r="G138">
-        <v>96.2204924976774</v>
+        <v>87.68364859815192</v>
       </c>
       <c r="H138">
-        <v>97.36797218322754</v>
+        <v>86.1436264038086</v>
       </c>
       <c r="I138">
-        <v>96.74172388712564</v>
+        <v>86.82554550170899</v>
       </c>
       <c r="L138">
-        <v>35.03781402855982</v>
+        <v>66.87835367032162</v>
       </c>
       <c r="M138">
-        <v>39.51120121623902</v>
+        <v>60.37092769562254</v>
       </c>
     </row>
     <row r="139" spans="1:13">
@@ -5560,34 +5575,34 @@
         <v>151</v>
       </c>
       <c r="B139">
-        <v>91.26354217529295</v>
+        <v>92.07909393310548</v>
       </c>
       <c r="C139">
-        <v>94.17888641357422</v>
+        <v>92.51657867431641</v>
       </c>
       <c r="D139">
-        <v>87.48365783691406</v>
+        <v>90.32435607910156</v>
       </c>
       <c r="E139">
-        <v>94.15721893310548</v>
+        <v>92.50344848632812</v>
       </c>
       <c r="F139">
-        <v>229972224</v>
+        <v>62214528</v>
       </c>
       <c r="G139">
-        <v>96.03292217362539</v>
+        <v>88.12181222434975</v>
       </c>
       <c r="H139">
-        <v>97.24634475708008</v>
+        <v>86.63903770446777</v>
       </c>
       <c r="I139">
-        <v>96.67446695963541</v>
+        <v>86.82534484863281</v>
       </c>
       <c r="L139">
-        <v>45.09782607680403</v>
+        <v>67.85576892374613</v>
       </c>
       <c r="M139">
-        <v>45.84625287356679</v>
+        <v>61.13964331410475</v>
       </c>
     </row>
     <row r="140" spans="1:13">
@@ -5595,34 +5610,34 @@
         <v>152</v>
       </c>
       <c r="B140">
-        <v>94.14727783203124</v>
+        <v>92.50344848632812</v>
       </c>
       <c r="C140">
-        <v>94.77047729492188</v>
+        <v>93.48607635498048</v>
       </c>
       <c r="D140">
-        <v>92.84156036376952</v>
+        <v>92.3838348388672</v>
       </c>
       <c r="E140">
-        <v>93.37915802001952</v>
+        <v>92.82528686523438</v>
       </c>
       <c r="F140">
-        <v>0</v>
+        <v>120376448</v>
       </c>
       <c r="G140">
-        <v>95.79167088693396</v>
+        <v>88.54940082806654</v>
       </c>
       <c r="H140">
-        <v>97.04222946166992</v>
+        <v>87.28543853759766</v>
       </c>
       <c r="I140">
-        <v>96.64985046386718</v>
+        <v>86.84167175292968</v>
       </c>
       <c r="L140">
-        <v>43.06526268260603</v>
+        <v>68.69301107030111</v>
       </c>
       <c r="M140">
-        <v>44.48694123206359</v>
+        <v>61.78275430301396</v>
       </c>
     </row>
     <row r="141" spans="1:13">
@@ -5630,34 +5645,34 @@
         <v>153</v>
       </c>
       <c r="B141">
-        <v>93.393798828125</v>
+        <v>92.84475708007812</v>
       </c>
       <c r="C141">
-        <v>94.02531433105467</v>
+        <v>93.52867126464844</v>
       </c>
       <c r="D141">
-        <v>92.10289764404295</v>
+        <v>91.82784271240234</v>
       </c>
       <c r="E141">
-        <v>93.56671142578124</v>
+        <v>92.43630981445312</v>
       </c>
       <c r="F141">
-        <v>0</v>
+        <v>82958464</v>
       </c>
       <c r="G141">
-        <v>95.58940184501097</v>
+        <v>88.90275619046533</v>
       </c>
       <c r="H141">
-        <v>96.88137245178223</v>
+        <v>87.77451248168946</v>
       </c>
       <c r="I141">
-        <v>96.57651824951172</v>
+        <v>86.89358291625976</v>
       </c>
       <c r="L141">
-        <v>43.75273275762734</v>
+        <v>66.34346032009341</v>
       </c>
       <c r="M141">
-        <v>44.91095162414566</v>
+        <v>60.48000221803512</v>
       </c>
     </row>
     <row r="142" spans="1:13">
@@ -5665,34 +5680,34 @@
         <v>154</v>
       </c>
       <c r="B142">
-        <v>93.55034637451172</v>
+        <v>92.38762664794922</v>
       </c>
       <c r="C142">
-        <v>93.57598114013672</v>
+        <v>93.55413818359376</v>
       </c>
       <c r="D142">
-        <v>91.94075012207033</v>
+        <v>92.16775512695312</v>
       </c>
       <c r="E142">
-        <v>91.94075012207033</v>
+        <v>92.71974182128906</v>
       </c>
       <c r="F142">
-        <v>0</v>
+        <v>54054656</v>
       </c>
       <c r="G142">
-        <v>95.25770623383454</v>
+        <v>89.24975488417657</v>
       </c>
       <c r="H142">
-        <v>96.59892501831055</v>
+        <v>88.35797653198242</v>
       </c>
       <c r="I142">
-        <v>96.45206425984701</v>
+        <v>87.0072031656901</v>
       </c>
       <c r="L142">
-        <v>39.14307017833426</v>
+        <v>67.261391101557</v>
       </c>
       <c r="M142">
-        <v>41.92152209520801</v>
+        <v>61.1232729659275</v>
       </c>
     </row>
     <row r="143" spans="1:13">
@@ -5700,34 +5715,34 @@
         <v>155</v>
       </c>
       <c r="B143">
-        <v>91.92576599121094</v>
+        <v>92.70783996582033</v>
       </c>
       <c r="C143">
-        <v>92.19716644287109</v>
+        <v>92.71400451660156</v>
       </c>
       <c r="D143">
-        <v>91.21743774414062</v>
+        <v>90.88470458984376</v>
       </c>
       <c r="E143">
-        <v>91.95760345458984</v>
+        <v>91.09405517578124</v>
       </c>
       <c r="F143">
-        <v>11048960</v>
+        <v>45949824</v>
       </c>
       <c r="G143">
-        <v>94.95769689026683</v>
+        <v>89.41741854704972</v>
       </c>
       <c r="H143">
-        <v>96.19685707092285</v>
+        <v>88.6995750427246</v>
       </c>
       <c r="I143">
-        <v>96.33769276936849</v>
+        <v>87.07505823771159</v>
       </c>
       <c r="L143">
-        <v>39.21774408526107</v>
+        <v>57.19568580167601</v>
       </c>
       <c r="M143">
-        <v>41.96464311165028</v>
+        <v>55.53922270965251</v>
       </c>
     </row>
     <row r="144" spans="1:13">
@@ -5735,1259 +5750,1259 @@
         <v>156</v>
       </c>
       <c r="B144">
-        <v>91.97116851806641</v>
+        <v>91.09902954101562</v>
       </c>
       <c r="C144">
-        <v>92.08259582519533</v>
+        <v>92.18621063232422</v>
       </c>
       <c r="D144">
-        <v>90.49375152587891</v>
+        <v>90.84476470947266</v>
       </c>
       <c r="E144">
-        <v>90.99130249023438</v>
+        <v>91.9697723388672</v>
       </c>
       <c r="F144">
-        <v>0</v>
+        <v>18095232</v>
       </c>
       <c r="G144">
-        <v>94.59711558117297</v>
+        <v>89.64945070994222</v>
       </c>
       <c r="H144">
-        <v>95.88422546386718</v>
+        <v>89.12432899475098</v>
       </c>
       <c r="I144">
-        <v>96.25324579874675</v>
+        <v>87.19312286376953</v>
       </c>
       <c r="L144">
-        <v>36.34140738107112</v>
+        <v>60.75481904988001</v>
       </c>
       <c r="M144">
-        <v>40.12513552873943</v>
-      </c>
-    </row>
-    <row r="145" spans="1:14">
+        <v>57.77693466860614</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15">
       <c r="A145" s="1" t="s">
         <v>157</v>
       </c>
       <c r="B145">
-        <v>90.98074340820312</v>
+        <v>91.97109222412109</v>
       </c>
       <c r="C145">
-        <v>92.50605010986328</v>
+        <v>92.92300415039062</v>
       </c>
       <c r="D145">
-        <v>90.82122039794922</v>
+        <v>91.75516510009766</v>
       </c>
       <c r="E145">
-        <v>92.11842346191406</v>
+        <v>92.79721069335938</v>
       </c>
       <c r="F145">
         <v>0</v>
       </c>
       <c r="G145">
-        <v>94.37177993396762</v>
+        <v>89.93561070843468</v>
       </c>
       <c r="H145">
-        <v>95.39301147460938</v>
+        <v>89.46052856445313</v>
       </c>
       <c r="I145">
-        <v>96.12449366251627</v>
+        <v>87.38240407307943</v>
       </c>
       <c r="L145">
-        <v>41.93020106321081</v>
+        <v>63.94183768347504</v>
       </c>
       <c r="M145">
-        <v>43.24996950880902</v>
-      </c>
-    </row>
-    <row r="146" spans="1:14">
+        <v>59.83397341933662</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15">
       <c r="A146" s="1" t="s">
         <v>158</v>
       </c>
       <c r="B146">
-        <v>92.10218048095705</v>
+        <v>92.79766845703124</v>
       </c>
       <c r="C146">
-        <v>93.34904479980467</v>
+        <v>93.33445739746094</v>
       </c>
       <c r="D146">
-        <v>92.01242065429688</v>
+        <v>92.40521240234376</v>
       </c>
       <c r="E146">
-        <v>92.52901458740234</v>
+        <v>93.22254180908205</v>
       </c>
       <c r="F146">
-        <v>9526400</v>
+        <v>0</v>
       </c>
       <c r="G146">
-        <v>94.2042558115526</v>
+        <v>90.23442262667535</v>
       </c>
       <c r="H146">
-        <v>95.03857345581055</v>
+        <v>89.76611328125001</v>
       </c>
       <c r="I146">
-        <v>96.05898615519206</v>
+        <v>87.70489400227865</v>
       </c>
       <c r="L146">
-        <v>43.9469500302351</v>
+        <v>65.55922919414975</v>
       </c>
       <c r="M146">
-        <v>44.38856694850216</v>
-      </c>
-    </row>
-    <row r="147" spans="1:14">
+        <v>60.88877393871406</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15">
       <c r="A147" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B147">
-        <v>92.58953094482422</v>
+        <v>93.20828247070312</v>
       </c>
       <c r="C147">
-        <v>93.18418884277344</v>
+        <v>94.43761444091795</v>
       </c>
       <c r="D147">
-        <v>91.92828369140624</v>
+        <v>92.98758697509766</v>
       </c>
       <c r="E147">
-        <v>92.9369659423828</v>
+        <v>94.15249633789062</v>
       </c>
       <c r="F147">
-        <v>0</v>
+        <v>40703104</v>
       </c>
       <c r="G147">
-        <v>94.08904764162807</v>
+        <v>90.59061114587675</v>
       </c>
       <c r="H147">
-        <v>94.64474105834961</v>
+        <v>90.12324752807618</v>
       </c>
       <c r="I147">
-        <v>95.95655797322591</v>
+        <v>88.05979665120442</v>
       </c>
       <c r="L147">
-        <v>46.0416021748275</v>
+        <v>68.98153598602349</v>
       </c>
       <c r="M147">
-        <v>45.55733145159209</v>
-      </c>
-    </row>
-    <row r="148" spans="1:14">
+        <v>63.16636270789935</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15">
       <c r="A148" s="1" t="s">
         <v>160</v>
       </c>
       <c r="B148">
-        <v>92.91424560546876</v>
+        <v>94.18190002441406</v>
       </c>
       <c r="C148">
-        <v>92.92072296142578</v>
+        <v>96.56355285644533</v>
       </c>
       <c r="D148">
-        <v>91.87586975097656</v>
+        <v>93.538330078125</v>
       </c>
       <c r="E148">
-        <v>92.39015960693359</v>
+        <v>96.55929565429688</v>
       </c>
       <c r="F148">
-        <v>0</v>
+        <v>108676352</v>
       </c>
       <c r="G148">
-        <v>93.93460327483766</v>
+        <v>91.1332188284604</v>
       </c>
       <c r="H148">
-        <v>94.1646541595459</v>
+        <v>90.63872871398925</v>
       </c>
       <c r="I148">
-        <v>95.77755839029948</v>
+        <v>88.43842290242513</v>
       </c>
       <c r="L148">
-        <v>43.58557524352126</v>
+        <v>75.94197629157641</v>
       </c>
       <c r="M148">
-        <v>44.21595170431989</v>
-      </c>
-    </row>
-    <row r="149" spans="1:14">
+        <v>68.3098841854097</v>
+      </c>
+      <c r="O148" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15">
       <c r="A149" s="1" t="s">
         <v>161</v>
       </c>
       <c r="B149">
-        <v>92.38510894775391</v>
+        <v>96.58811187744141</v>
       </c>
       <c r="C149">
-        <v>93.71378326416016</v>
+        <v>96.99279022216795</v>
       </c>
       <c r="D149">
-        <v>92.33180236816406</v>
+        <v>95.39656066894533</v>
       </c>
       <c r="E149">
-        <v>93.06238555908205</v>
+        <v>95.66624450683594</v>
       </c>
       <c r="F149">
-        <v>10790272</v>
+        <v>175926016</v>
       </c>
       <c r="G149">
-        <v>93.8553107552235</v>
+        <v>91.54531207194908</v>
       </c>
       <c r="H149">
-        <v>93.8264060974121</v>
+        <v>90.98487167358398</v>
       </c>
       <c r="I149">
-        <v>95.65997899373373</v>
+        <v>88.87412363688151</v>
       </c>
       <c r="L149">
-        <v>47.46166031639381</v>
+        <v>69.43767608178094</v>
       </c>
       <c r="M149">
-        <v>46.30891711756681</v>
-      </c>
-    </row>
-    <row r="150" spans="1:14">
+        <v>64.69962130698391</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15">
       <c r="A150" s="1" t="s">
         <v>162</v>
       </c>
       <c r="B150">
-        <v>93.06819152832033</v>
+        <v>95.6694793701172</v>
       </c>
       <c r="C150">
-        <v>93.57586669921876</v>
+        <v>99.37737274169922</v>
       </c>
       <c r="D150">
-        <v>92.22446441650391</v>
+        <v>95.6694793701172</v>
       </c>
       <c r="E150">
-        <v>92.50946807861328</v>
+        <v>98.40855407714844</v>
       </c>
       <c r="F150">
-        <v>14097280</v>
+        <v>297574912</v>
       </c>
       <c r="G150">
-        <v>93.7329614209862</v>
+        <v>92.16924316333083</v>
       </c>
       <c r="H150">
-        <v>93.42049179077148</v>
+        <v>91.47713241577148</v>
       </c>
       <c r="I150">
-        <v>95.49491246541341</v>
+        <v>89.49116643269856</v>
       </c>
       <c r="L150">
-        <v>44.62456025197152</v>
+        <v>76.41572342216031</v>
       </c>
       <c r="M150">
-        <v>44.8193923919516</v>
-      </c>
-    </row>
-    <row r="151" spans="1:14">
+        <v>69.95137871623162</v>
+      </c>
+      <c r="O150" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15">
       <c r="A151" s="1" t="s">
         <v>163</v>
       </c>
       <c r="B151">
-        <v>92.49874114990234</v>
+        <v>98.40921020507812</v>
       </c>
       <c r="C151">
-        <v>92.78092193603516</v>
+        <v>98.40921020507812</v>
       </c>
       <c r="D151">
-        <v>92.05858612060548</v>
+        <v>96.83728790283205</v>
       </c>
       <c r="E151">
-        <v>92.33547973632812</v>
+        <v>97.240478515625</v>
       </c>
       <c r="F151">
-        <v>5064192</v>
+        <v>337177600</v>
       </c>
       <c r="G151">
-        <v>93.60591763147183</v>
+        <v>92.63026455899393</v>
       </c>
       <c r="H151">
-        <v>93.09925003051758</v>
+        <v>91.92803688049317</v>
       </c>
       <c r="I151">
-        <v>95.34663340250651</v>
+        <v>89.9773546854655</v>
       </c>
       <c r="J151">
-        <v>98.975930074056</v>
+        <v>94.49087926228842</v>
       </c>
       <c r="L151">
-        <v>43.69981173144128</v>
+        <v>68.87964485999028</v>
       </c>
       <c r="M151">
-        <v>44.33612737233511</v>
-      </c>
-    </row>
-    <row r="152" spans="1:14">
+        <v>65.48258555986399</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15">
       <c r="A152" s="1" t="s">
         <v>164</v>
       </c>
       <c r="B152">
-        <v>92.34517669677734</v>
+        <v>97.18907928466795</v>
       </c>
       <c r="C152">
-        <v>92.5188446044922</v>
+        <v>97.77084350585938</v>
       </c>
       <c r="D152">
-        <v>90.87897491455078</v>
+        <v>94.46095275878906</v>
       </c>
       <c r="E152">
-        <v>90.87897491455078</v>
+        <v>94.71982574462891</v>
       </c>
       <c r="F152">
-        <v>21535360</v>
+        <v>143766400</v>
       </c>
       <c r="G152">
-        <v>93.35801374811537</v>
+        <v>92.82022466677893</v>
       </c>
       <c r="H152">
-        <v>92.73038253784179</v>
+        <v>92.21711616516113</v>
       </c>
       <c r="I152">
-        <v>95.12294260660808</v>
+        <v>90.43300018310546</v>
       </c>
       <c r="J152">
-        <v>98.86868563485724</v>
+        <v>94.49391166602803</v>
       </c>
       <c r="L152">
-        <v>36.5639407245301</v>
+        <v>55.57417237934244</v>
       </c>
       <c r="M152">
-        <v>40.40818424131712</v>
-      </c>
-    </row>
-    <row r="153" spans="1:14">
+        <v>57.01754135058056</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15">
       <c r="A153" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B153">
-        <v>90.90369415283205</v>
+        <v>94.71985626220705</v>
       </c>
       <c r="C153">
-        <v>91.63616180419922</v>
+        <v>96.18897247314452</v>
       </c>
       <c r="D153">
-        <v>88.44515991210938</v>
+        <v>93.54824066162109</v>
       </c>
       <c r="E153">
-        <v>89.31113433837891</v>
+        <v>95.92588043212891</v>
       </c>
       <c r="F153">
-        <v>194594688</v>
+        <v>154264064</v>
       </c>
       <c r="G153">
-        <v>92.99011561995751</v>
+        <v>93.10255700908345</v>
       </c>
       <c r="H153">
-        <v>92.5889102935791</v>
+        <v>92.68953857421874</v>
       </c>
       <c r="I153">
-        <v>94.76668167114258</v>
+        <v>90.82179336547851</v>
       </c>
       <c r="J153">
-        <v>98.74209555146018</v>
+        <v>94.51287813975122</v>
       </c>
       <c r="L153">
-        <v>30.52726534786501</v>
+        <v>59.75845095740865</v>
       </c>
       <c r="M153">
-        <v>36.64467516172373</v>
-      </c>
-    </row>
-    <row r="154" spans="1:14">
+        <v>59.70181946126336</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15">
       <c r="A154" s="1" t="s">
         <v>166</v>
       </c>
       <c r="B154">
-        <v>89.30735778808594</v>
+        <v>95.93798065185548</v>
       </c>
       <c r="C154">
-        <v>89.97715759277344</v>
+        <v>98.7062530517578</v>
       </c>
       <c r="D154">
-        <v>88.53067779541016</v>
+        <v>95.17613220214844</v>
       </c>
       <c r="E154">
-        <v>89.05840301513672</v>
+        <v>98.01337432861328</v>
       </c>
       <c r="F154">
-        <v>130774016</v>
+        <v>61767936</v>
       </c>
       <c r="G154">
-        <v>92.63268720133743</v>
+        <v>93.54899494722252</v>
       </c>
       <c r="H154">
-        <v>92.32922286987306</v>
+        <v>93.20320930480958</v>
       </c>
       <c r="I154">
-        <v>94.49383061726888</v>
+        <v>91.30641606648763</v>
       </c>
       <c r="J154">
-        <v>98.61383472316452</v>
+        <v>94.55924232768317</v>
       </c>
       <c r="L154">
-        <v>29.63984288624865</v>
+        <v>65.9949300681107</v>
       </c>
       <c r="M154">
-        <v>36.0616185792822</v>
-      </c>
-      <c r="N154" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="155" spans="1:14">
+        <v>63.90368387180464</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15">
       <c r="A155" s="1" t="s">
         <v>167</v>
       </c>
       <c r="B155">
-        <v>89.064208984375</v>
+        <v>97.99626922607422</v>
       </c>
       <c r="C155">
-        <v>89.08988189697266</v>
+        <v>97.99626922607422</v>
       </c>
       <c r="D155">
-        <v>86.55192565917969</v>
+        <v>96.29471588134766</v>
       </c>
       <c r="E155">
-        <v>88.42783355712891</v>
+        <v>96.83668518066406</v>
       </c>
       <c r="F155">
-        <v>253145088</v>
+        <v>3798784</v>
       </c>
       <c r="G155">
-        <v>92.25042777913666</v>
+        <v>93.84787587753539</v>
       </c>
       <c r="H155">
-        <v>92.09911499023438</v>
+        <v>93.69923973083496</v>
       </c>
       <c r="I155">
-        <v>94.0433349609375</v>
+        <v>91.66519826253256</v>
       </c>
       <c r="J155">
-        <v>98.47892080043557</v>
+        <v>94.58940713368293</v>
       </c>
       <c r="L155">
-        <v>27.40380210137875</v>
+        <v>60.08948888600352</v>
       </c>
       <c r="M155">
-        <v>34.58311467731703</v>
-      </c>
-      <c r="N155" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="156" spans="1:14">
+        <v>60.09960567593354</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15">
       <c r="A156" s="1" t="s">
         <v>168</v>
       </c>
       <c r="B156">
-        <v>88.40828704833984</v>
+        <v>96.8071746826172</v>
       </c>
       <c r="C156">
-        <v>89.78891754150391</v>
+        <v>97.8941650390625</v>
       </c>
       <c r="D156">
-        <v>85.80907440185547</v>
+        <v>96.36273956298828</v>
       </c>
       <c r="E156">
-        <v>87.1187744140625</v>
+        <v>97.20010375976562</v>
       </c>
       <c r="F156">
-        <v>310467200</v>
+        <v>0</v>
       </c>
       <c r="G156">
-        <v>91.7839138368572</v>
+        <v>94.15262386682905</v>
       </c>
       <c r="H156">
-        <v>91.7370029449463</v>
+        <v>94.16824264526367</v>
       </c>
       <c r="I156">
-        <v>93.62670160929362</v>
+        <v>92.00150680541992</v>
       </c>
       <c r="J156">
-        <v>98.32845528538428</v>
+        <v>94.6239858969423</v>
       </c>
       <c r="L156">
-        <v>23.29877707866969</v>
+        <v>61.29294378408488</v>
       </c>
       <c r="M156">
-        <v>31.67933086821602</v>
-      </c>
-      <c r="N156" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="157" spans="1:14">
+        <v>60.87427437279748</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15">
       <c r="A157" s="1" t="s">
         <v>169</v>
       </c>
       <c r="B157">
-        <v>87.14884185791016</v>
+        <v>97.2081298828125</v>
       </c>
       <c r="C157">
-        <v>87.38318634033203</v>
+        <v>99.8814697265625</v>
       </c>
       <c r="D157">
-        <v>82.65976715087891</v>
+        <v>95.68346405029295</v>
       </c>
       <c r="E157">
-        <v>83.54784393310547</v>
+        <v>99.8814697265625</v>
       </c>
       <c r="F157">
-        <v>577768192</v>
+        <v>112315264</v>
       </c>
       <c r="G157">
-        <v>91.03518020924339</v>
+        <v>94.67342803589572</v>
       </c>
       <c r="H157">
-        <v>91.17514038085938</v>
+        <v>94.81383476257324</v>
       </c>
       <c r="I157">
-        <v>93.05117594401041</v>
+        <v>92.43056208292643</v>
       </c>
       <c r="J157">
-        <v>98.13268559859914</v>
+        <v>94.69362144435449</v>
       </c>
       <c r="L157">
-        <v>15.96128682179946</v>
+        <v>69.0415448130678</v>
       </c>
       <c r="M157">
-        <v>25.41126825736769</v>
-      </c>
-      <c r="N157" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="158" spans="1:14">
+        <v>66.1033951220931</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15">
       <c r="A158" s="1" t="s">
         <v>170</v>
       </c>
       <c r="B158">
-        <v>83.53693389892578</v>
+        <v>99.85671997070312</v>
       </c>
       <c r="C158">
-        <v>85.99843597412109</v>
+        <v>101.5602035522461</v>
       </c>
       <c r="D158">
-        <v>83.32959747314453</v>
+        <v>99.30501556396484</v>
       </c>
       <c r="E158">
-        <v>83.50541687011719</v>
+        <v>100.666862487793</v>
       </c>
       <c r="F158">
-        <v>297277440</v>
+        <v>494574976</v>
       </c>
       <c r="G158">
-        <v>90.35065626932283</v>
+        <v>95.21828571334092</v>
       </c>
       <c r="H158">
-        <v>90.78615112304688</v>
+        <v>95.24198188781739</v>
       </c>
       <c r="I158">
-        <v>92.43495992024739</v>
+        <v>92.91113510131837</v>
       </c>
       <c r="J158">
-        <v>97.93894693994375</v>
+        <v>94.77273721976427</v>
       </c>
       <c r="L158">
-        <v>15.89437973941418</v>
+        <v>70.95735569775621</v>
       </c>
       <c r="M158">
-        <v>25.34709828803518</v>
-      </c>
-      <c r="N158" t="s">
+        <v>67.47460620138283</v>
+      </c>
+      <c r="O158" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="159" spans="1:14">
+    <row r="159" spans="1:15">
       <c r="A159" s="1" t="s">
         <v>171</v>
       </c>
       <c r="B159">
-        <v>83.62184143066406</v>
+        <v>100.6527709960938</v>
       </c>
       <c r="C159">
-        <v>85.61627960205078</v>
+        <v>101.7719116210938</v>
       </c>
       <c r="D159">
-        <v>83.62184143066406</v>
+        <v>100.6222686767578</v>
       </c>
       <c r="E159">
-        <v>85.20050811767578</v>
+        <v>101.5322875976562</v>
       </c>
       <c r="F159">
-        <v>59025664</v>
+        <v>26404864</v>
       </c>
       <c r="G159">
-        <v>89.88246098280946</v>
+        <v>95.79228588464231</v>
       </c>
       <c r="H159">
-        <v>90.33831558227538</v>
+        <v>95.69342384338378</v>
       </c>
       <c r="I159">
-        <v>91.947398630778</v>
+        <v>93.33743184407552</v>
       </c>
       <c r="J159">
-        <v>97.7702258959402</v>
+        <v>94.86226768834563</v>
       </c>
       <c r="L159">
-        <v>29.22852216954703</v>
+        <v>73.0265663684214</v>
       </c>
       <c r="M159">
-        <v>32.66339793436496</v>
-      </c>
-      <c r="N159" t="s">
+        <v>68.96443069517726</v>
+      </c>
+      <c r="O159" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="160" spans="1:14">
+    <row r="160" spans="1:15">
       <c r="A160" s="1" t="s">
         <v>172</v>
       </c>
       <c r="B160">
-        <v>85.19129180908203</v>
+        <v>101.5666656494141</v>
       </c>
       <c r="C160">
-        <v>85.84018707275391</v>
+        <v>103.6321411132812</v>
       </c>
       <c r="D160">
-        <v>82.4774169921875</v>
+        <v>101.1093902587891</v>
       </c>
       <c r="E160">
-        <v>82.59522247314453</v>
+        <v>102.1725006103516</v>
       </c>
       <c r="F160">
-        <v>30285568</v>
+        <v>167298560</v>
       </c>
       <c r="G160">
-        <v>89.2199847546581</v>
+        <v>96.37230540516133</v>
       </c>
       <c r="H160">
-        <v>89.79911880493164</v>
+        <v>96.16078453063965</v>
       </c>
       <c r="I160">
-        <v>91.34631423950195</v>
+        <v>93.79107055664062</v>
       </c>
       <c r="J160">
-        <v>97.56923247312172</v>
+        <v>94.95909196545828</v>
       </c>
       <c r="L160">
-        <v>22.94000367641951</v>
+        <v>74.53642228315438</v>
       </c>
       <c r="M160">
-        <v>28.10443015030634</v>
-      </c>
-      <c r="N160" t="s">
+        <v>70.05709357268593</v>
+      </c>
+      <c r="O160" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="161" spans="1:14">
+    <row r="161" spans="1:15">
       <c r="A161" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B161">
-        <v>82.63655853271484</v>
+        <v>102.1583099365234</v>
       </c>
       <c r="C161">
-        <v>83.26882171630859</v>
+        <v>103.217414855957</v>
       </c>
       <c r="D161">
-        <v>79.16059875488281</v>
+        <v>101.8060531616211</v>
       </c>
       <c r="E161">
-        <v>79.89727020263672</v>
+        <v>102.899528503418</v>
       </c>
       <c r="F161">
-        <v>352510464</v>
+        <v>63821568</v>
       </c>
       <c r="G161">
-        <v>88.37246524992888</v>
+        <v>96.96568932318465</v>
       </c>
       <c r="H161">
-        <v>89.11564674377442</v>
+        <v>96.68394546508789</v>
       </c>
       <c r="I161">
-        <v>90.71754608154296</v>
+        <v>94.28030853271484</v>
       </c>
       <c r="J161">
-        <v>97.33516674768484</v>
+        <v>95.06426331033194</v>
       </c>
       <c r="L161">
-        <v>18.34242072233329</v>
+        <v>76.23584253835095</v>
       </c>
       <c r="M161">
-        <v>24.3190057590076</v>
-      </c>
-      <c r="N161" t="s">
+        <v>71.29310900123772</v>
+      </c>
+      <c r="O161" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="162" spans="1:14">
+    <row r="162" spans="1:15">
       <c r="A162" s="1" t="s">
         <v>174</v>
       </c>
       <c r="B162">
-        <v>80.12245941162109</v>
+        <v>102.8637619018555</v>
       </c>
       <c r="C162">
-        <v>82.94814300537109</v>
+        <v>106.2134628295898</v>
       </c>
       <c r="D162">
-        <v>79.06669616699219</v>
+        <v>102.5176391601562</v>
       </c>
       <c r="E162">
-        <v>82.65483093261719</v>
+        <v>106.2134628295898</v>
       </c>
       <c r="F162">
-        <v>325295104</v>
+        <v>350945792</v>
       </c>
       <c r="G162">
-        <v>87.85268031199146</v>
+        <v>97.80639600558511</v>
       </c>
       <c r="H162">
-        <v>88.65135078430175</v>
+        <v>97.35863151550294</v>
       </c>
       <c r="I162">
-        <v>90.19749628702799</v>
+        <v>94.85614929199218</v>
       </c>
       <c r="J162">
-        <v>97.14072521371044</v>
+        <v>95.21193482714331</v>
       </c>
       <c r="L162">
-        <v>33.63608164024684</v>
+        <v>82.29510816356823</v>
       </c>
       <c r="M162">
-        <v>34.09054576706106</v>
-      </c>
-    </row>
-    <row r="163" spans="1:14">
+        <v>76.12994040608466</v>
+      </c>
+      <c r="O162" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15">
       <c r="A163" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B163">
-        <v>82.68437957763672</v>
+        <v>106.1566543579102</v>
       </c>
       <c r="C163">
-        <v>83.47123718261719</v>
+        <v>106.1892929077148</v>
       </c>
       <c r="D163">
-        <v>80.96070098876953</v>
+        <v>103.6727676391602</v>
       </c>
       <c r="E163">
-        <v>81.05046081542969</v>
+        <v>104.8640823364258</v>
       </c>
       <c r="F163">
-        <v>65889024</v>
+        <v>329000960</v>
       </c>
       <c r="G163">
-        <v>87.23429672139494</v>
+        <v>98.44800385384336</v>
       </c>
       <c r="H163">
-        <v>88.10599365234376</v>
+        <v>98.04713287353516</v>
       </c>
       <c r="I163">
-        <v>89.82782567342123</v>
+        <v>95.46903762817382</v>
       </c>
       <c r="J163">
-        <v>96.927609128965</v>
+        <v>95.3397778405113</v>
       </c>
       <c r="L163">
-        <v>29.96298742007959</v>
+        <v>73.68835258046339</v>
       </c>
       <c r="M163">
-        <v>31.53908205175704</v>
-      </c>
-      <c r="N163" t="s">
+        <v>70.89214960977351</v>
+      </c>
+      <c r="O163" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="164" spans="1:14">
+    <row r="164" spans="1:15">
       <c r="A164" s="1" t="s">
         <v>176</v>
       </c>
       <c r="B164">
-        <v>81.02459716796875</v>
+        <v>104.8471908569336</v>
       </c>
       <c r="C164">
-        <v>84.2620849609375</v>
+        <v>105.52490234375</v>
       </c>
       <c r="D164">
-        <v>80.46012878417969</v>
+        <v>103.5532760620117</v>
       </c>
       <c r="E164">
-        <v>84.2620849609375</v>
+        <v>105.4188537597656</v>
       </c>
       <c r="F164">
-        <v>57221632</v>
+        <v>40321024</v>
       </c>
       <c r="G164">
-        <v>86.96409565226244</v>
+        <v>99.08171748165447</v>
       </c>
       <c r="H164">
-        <v>87.7695327758789</v>
+        <v>98.71958694458007</v>
       </c>
       <c r="I164">
-        <v>89.49482345581055</v>
+        <v>96.05833409627279</v>
       </c>
       <c r="J164">
-        <v>96.75985384197126</v>
+        <v>95.47327553480606</v>
       </c>
       <c r="L164">
-        <v>43.78705075327908</v>
+        <v>74.90238445370183</v>
       </c>
       <c r="M164">
-        <v>41.0504082752942</v>
-      </c>
-    </row>
-    <row r="165" spans="1:14">
+        <v>71.75261853538291</v>
+      </c>
+      <c r="O164" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15">
       <c r="A165" s="1" t="s">
         <v>177</v>
       </c>
       <c r="B165">
-        <v>84.28726196289062</v>
+        <v>105.3968353271484</v>
       </c>
       <c r="C165">
-        <v>85.51583099365234</v>
+        <v>105.5645141601562</v>
       </c>
       <c r="D165">
-        <v>83.47469329833984</v>
+        <v>101.2670135498047</v>
       </c>
       <c r="E165">
-        <v>83.47469329833984</v>
+        <v>101.4166412353516</v>
       </c>
       <c r="F165">
-        <v>162866176</v>
+        <v>134814976</v>
       </c>
       <c r="G165">
-        <v>86.6468772564513</v>
+        <v>99.29398327744511</v>
       </c>
       <c r="H165">
-        <v>87.3373462677002</v>
+        <v>99.15055847167969</v>
       </c>
       <c r="I165">
-        <v>89.17631352742514</v>
+        <v>96.5416862487793</v>
       </c>
       <c r="J165">
-        <v>96.58389145066489</v>
+        <v>95.55199561030997</v>
       </c>
       <c r="L165">
-        <v>41.52631345438186</v>
+        <v>54.49534372809021</v>
       </c>
       <c r="M165">
-        <v>39.59789135496203</v>
-      </c>
-    </row>
-    <row r="166" spans="1:14">
+        <v>58.35132983675989</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15">
       <c r="A166" s="1" t="s">
         <v>178</v>
       </c>
       <c r="B166">
-        <v>83.47649383544922</v>
+        <v>101.4492568969727</v>
       </c>
       <c r="C166">
-        <v>86.46942138671875</v>
+        <v>101.637092590332</v>
       </c>
       <c r="D166">
-        <v>83.41868591308594</v>
+        <v>99.27565002441406</v>
       </c>
       <c r="E166">
-        <v>86.07321929931641</v>
+        <v>101.1329116821289</v>
       </c>
       <c r="F166">
-        <v>129547264</v>
+        <v>233127680</v>
       </c>
       <c r="G166">
-        <v>86.5947265330754</v>
+        <v>99.46115858696182</v>
       </c>
       <c r="H166">
-        <v>87.01455650329589</v>
+        <v>99.54607696533202</v>
       </c>
       <c r="I166">
-        <v>88.90005366007487</v>
+        <v>96.98544845581054</v>
       </c>
       <c r="J166">
-        <v>96.44467724998479</v>
+        <v>95.62591502847977</v>
       </c>
       <c r="L166">
-        <v>50.93201885718478</v>
+        <v>53.33639298091304</v>
       </c>
       <c r="M166">
-        <v>46.34523672661401</v>
-      </c>
-    </row>
-    <row r="167" spans="1:14">
+        <v>57.53097889159486</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15">
       <c r="A167" s="1" t="s">
         <v>179</v>
       </c>
       <c r="B167">
-        <v>86.07527923583984</v>
+        <v>101.1489562988281</v>
       </c>
       <c r="C167">
-        <v>88.1689453125</v>
+        <v>101.5922698974609</v>
       </c>
       <c r="D167">
-        <v>85.9818115234375</v>
+        <v>100.19921875</v>
       </c>
       <c r="E167">
-        <v>87.11084747314453</v>
+        <v>101.5859527587891</v>
       </c>
       <c r="F167">
-        <v>0</v>
+        <v>63749376</v>
       </c>
       <c r="G167">
-        <v>86.64164661853623</v>
+        <v>99.65432169349157</v>
       </c>
       <c r="H167">
-        <v>86.72325057983399</v>
+        <v>99.91774978637694</v>
       </c>
       <c r="I167">
-        <v>88.64424540201823</v>
+        <v>97.47265930175782</v>
       </c>
       <c r="J167">
-        <v>96.32105036552335</v>
+        <v>95.70485592556996</v>
       </c>
       <c r="L167">
-        <v>54.2387294150173</v>
+        <v>55.05346049994095</v>
       </c>
       <c r="M167">
-        <v>48.80453769874384</v>
-      </c>
-    </row>
-    <row r="168" spans="1:14">
+        <v>58.53343344238452</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15">
       <c r="A168" s="1" t="s">
         <v>180</v>
       </c>
       <c r="B168">
-        <v>87.12303161621094</v>
+        <v>101.5930786132812</v>
       </c>
       <c r="C168">
-        <v>87.83754730224609</v>
+        <v>101.7632141113281</v>
       </c>
       <c r="D168">
-        <v>85.35543823242188</v>
+        <v>97.6332550048828</v>
       </c>
       <c r="E168">
-        <v>87.00981140136719</v>
+        <v>99.11195373535156</v>
       </c>
       <c r="F168">
-        <v>23296</v>
+        <v>138536192</v>
       </c>
       <c r="G168">
-        <v>86.67511614424814</v>
+        <v>99.60501551547884</v>
       </c>
       <c r="H168">
-        <v>86.45423316955566</v>
+        <v>100.0453826904297</v>
       </c>
       <c r="I168">
-        <v>88.50173238118489</v>
+        <v>97.70626042683919</v>
       </c>
       <c r="J168">
-        <v>96.19772269712394</v>
+        <v>95.74998304887833</v>
       </c>
       <c r="L168">
-        <v>53.84126298769595</v>
+        <v>44.902749423168</v>
       </c>
       <c r="M168">
-        <v>48.57108409831723</v>
-      </c>
-    </row>
-    <row r="169" spans="1:14">
+        <v>51.398505971369</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15">
       <c r="A169" s="1" t="s">
         <v>181</v>
       </c>
       <c r="B169">
-        <v>87.0169677734375</v>
+        <v>99.114990234375</v>
       </c>
       <c r="C169">
-        <v>87.67506408691406</v>
+        <v>101.4254455566406</v>
       </c>
       <c r="D169">
-        <v>85.73739624023438</v>
+        <v>97.98113250732422</v>
       </c>
       <c r="E169">
-        <v>86.24967193603516</v>
+        <v>100.9137115478516</v>
       </c>
       <c r="F169">
-        <v>0</v>
+        <v>193022976</v>
       </c>
       <c r="G169">
-        <v>86.63643939804695</v>
+        <v>99.72398788205818</v>
       </c>
       <c r="H169">
-        <v>86.11359748840331</v>
+        <v>100.3077560424805</v>
       </c>
       <c r="I169">
-        <v>88.23814748128255</v>
+        <v>97.98660252888997</v>
       </c>
       <c r="J169">
-        <v>96.06596043538767</v>
+        <v>95.81837680383163</v>
       </c>
       <c r="L169">
-        <v>50.6968384863437</v>
+        <v>52.13363811287009</v>
       </c>
       <c r="M169">
-        <v>46.75888451330904</v>
-      </c>
-    </row>
-    <row r="170" spans="1:14">
+        <v>55.63946352814073</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15">
       <c r="A170" s="1" t="s">
         <v>182</v>
       </c>
       <c r="B170">
-        <v>86.24577331542969</v>
+        <v>101.1304397583008</v>
       </c>
       <c r="C170">
-        <v>89.26772308349609</v>
+        <v>102.5480651855469</v>
       </c>
       <c r="D170">
-        <v>86.08899688720703</v>
+        <v>99.85805511474609</v>
       </c>
       <c r="E170">
-        <v>88.74338531494141</v>
+        <v>100.8551635742188</v>
       </c>
       <c r="F170">
-        <v>29734400</v>
+        <v>114087424</v>
       </c>
       <c r="G170">
-        <v>86.82797993594644</v>
+        <v>99.82682203589096</v>
       </c>
       <c r="H170">
-        <v>85.92529335021973</v>
+        <v>100.430086517334</v>
       </c>
       <c r="I170">
-        <v>88.08362172444662</v>
+        <v>98.25426508585612</v>
       </c>
       <c r="J170">
-        <v>95.96897268544799</v>
+        <v>95.88508921138643</v>
       </c>
       <c r="L170">
-        <v>59.43935666853596</v>
+        <v>51.88471275365404</v>
       </c>
       <c r="M170">
-        <v>52.95954157657702</v>
-      </c>
-    </row>
-    <row r="171" spans="1:14">
+        <v>55.47007919826982</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15">
       <c r="A171" s="1" t="s">
         <v>183</v>
       </c>
       <c r="B171">
-        <v>88.73780059814453</v>
+        <v>100.8620147705078</v>
       </c>
       <c r="C171">
-        <v>89.37682342529297</v>
+        <v>100.9797592163086</v>
       </c>
       <c r="D171">
-        <v>87.78644561767578</v>
+        <v>96.10359191894533</v>
       </c>
       <c r="E171">
-        <v>88.56333923339844</v>
+        <v>97.08460235595705</v>
       </c>
       <c r="F171">
-        <v>2589952</v>
+        <v>339798528</v>
       </c>
       <c r="G171">
-        <v>86.98573987207844</v>
+        <v>99.57752933771515</v>
       </c>
       <c r="H171">
-        <v>85.73668632507324</v>
+        <v>100.4222927093506</v>
       </c>
       <c r="I171">
-        <v>87.91684265136719</v>
+        <v>98.40920817057291</v>
       </c>
       <c r="J171">
-        <v>95.87088482515594</v>
+        <v>95.90097680270524</v>
       </c>
       <c r="L171">
-        <v>58.59540994109075</v>
+        <v>38.54912219534393</v>
       </c>
       <c r="M171">
-        <v>52.48427031730448</v>
-      </c>
-    </row>
-    <row r="172" spans="1:14">
+        <v>45.79991626704227</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15">
       <c r="A172" s="1" t="s">
         <v>184</v>
       </c>
       <c r="B172">
-        <v>88.55800628662109</v>
+        <v>97.02484130859376</v>
       </c>
       <c r="C172">
-        <v>88.55800628662109</v>
+        <v>97.47932434082033</v>
       </c>
       <c r="D172">
-        <v>86.84970855712891</v>
+        <v>93.41303253173828</v>
       </c>
       <c r="E172">
-        <v>88.22238922119141</v>
+        <v>93.64060211181641</v>
       </c>
       <c r="F172">
-        <v>4312832</v>
+        <v>267870208</v>
       </c>
       <c r="G172">
-        <v>87.09816254017963</v>
+        <v>99.03780868081526</v>
       </c>
       <c r="H172">
-        <v>85.60385704040527</v>
+        <v>100.36833152771</v>
       </c>
       <c r="I172">
-        <v>87.79289728800455</v>
+        <v>98.43990351359049</v>
       </c>
       <c r="J172">
-        <v>95.76958024761998</v>
+        <v>95.87103806507758</v>
       </c>
       <c r="L172">
-        <v>56.87503861083382</v>
+        <v>30.49510329168632</v>
       </c>
       <c r="M172">
-        <v>51.54098778457264</v>
-      </c>
-    </row>
-    <row r="173" spans="1:14">
+        <v>39.09572840785005</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15">
       <c r="A173" s="1" t="s">
         <v>185</v>
       </c>
       <c r="B173">
-        <v>88.16857147216797</v>
+        <v>93.63135528564452</v>
       </c>
       <c r="C173">
-        <v>89.11009979248047</v>
+        <v>95.51870727539062</v>
       </c>
       <c r="D173">
-        <v>86.73002624511719</v>
+        <v>93.3791961669922</v>
       </c>
       <c r="E173">
-        <v>88.93824005126953</v>
+        <v>94.97634887695312</v>
       </c>
       <c r="F173">
-        <v>23975296</v>
+        <v>105783040</v>
       </c>
       <c r="G173">
-        <v>87.26544231391507</v>
+        <v>98.66858506228233</v>
       </c>
       <c r="H173">
-        <v>85.5852123260498</v>
+        <v>100.3208549499512</v>
       </c>
       <c r="I173">
-        <v>87.69225184122722</v>
+        <v>98.56931330362956</v>
       </c>
       <c r="J173">
-        <v>95.67909892051601</v>
+        <v>95.85918787715541</v>
       </c>
       <c r="L173">
-        <v>59.67177812418063</v>
+        <v>36.30191823054952</v>
       </c>
       <c r="M173">
-        <v>53.43334942529359</v>
-      </c>
-    </row>
-    <row r="174" spans="1:14">
+        <v>42.60487977617336</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15">
       <c r="A174" s="1" t="s">
         <v>186</v>
       </c>
       <c r="B174">
-        <v>88.94561767578125</v>
+        <v>94.96396636962891</v>
       </c>
       <c r="C174">
-        <v>89.19389343261719</v>
+        <v>96.57186126708984</v>
       </c>
       <c r="D174">
-        <v>86.06172943115234</v>
+        <v>94.64902496337891</v>
       </c>
       <c r="E174">
-        <v>86.47743225097656</v>
+        <v>95.30992126464844</v>
       </c>
       <c r="F174">
         <v>0</v>
       </c>
       <c r="G174">
-        <v>87.19380503546611</v>
+        <v>98.36325198977015</v>
       </c>
       <c r="H174">
-        <v>85.4561637878418</v>
+        <v>100.1856822967529</v>
       </c>
       <c r="I174">
-        <v>87.54178949991862</v>
+        <v>98.6806516011556</v>
       </c>
       <c r="J174">
-        <v>95.55722254078702</v>
+        <v>95.85191282268512</v>
       </c>
       <c r="L174">
-        <v>47.70681407252628</v>
+        <v>37.76272126864009</v>
       </c>
       <c r="M174">
-        <v>46.68433168084676</v>
-      </c>
-    </row>
-    <row r="175" spans="1:14">
+        <v>43.4806737858114</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15">
       <c r="A175" s="1" t="s">
         <v>187</v>
       </c>
       <c r="B175">
-        <v>86.42098236083984</v>
+        <v>95.31786346435548</v>
       </c>
       <c r="C175">
-        <v>88.04479217529297</v>
+        <v>97.36122894287109</v>
       </c>
       <c r="D175">
-        <v>85.273681640625</v>
+        <v>94.81605529785156</v>
       </c>
       <c r="E175">
-        <v>87.73995971679688</v>
+        <v>96.1762237548828</v>
       </c>
       <c r="F175">
-        <v>63095424</v>
+        <v>20357376</v>
       </c>
       <c r="G175">
-        <v>87.24345546104163</v>
+        <v>98.16443124114402</v>
       </c>
       <c r="H175">
-        <v>85.4217700958252</v>
+        <v>100.1526592254639</v>
       </c>
       <c r="I175">
-        <v>87.39584070841471</v>
+        <v>98.79328536987305</v>
       </c>
       <c r="J175">
-        <v>95.45368263583352</v>
+        <v>95.85620833172086</v>
       </c>
       <c r="L175">
-        <v>53.1311029998944</v>
+        <v>41.6709688168044</v>
       </c>
       <c r="M175">
-        <v>50.16236261866408</v>
-      </c>
-    </row>
-    <row r="176" spans="1:14">
+        <v>45.79400835001985</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15">
       <c r="A176" s="1" t="s">
         <v>188</v>
       </c>
       <c r="B176">
-        <v>87.73807525634766</v>
+        <v>96.102783203125</v>
       </c>
       <c r="C176">
-        <v>87.73807525634766</v>
+        <v>97.80500793457033</v>
       </c>
       <c r="D176">
-        <v>86.56836700439453</v>
+        <v>95.04788208007812</v>
       </c>
       <c r="E176">
-        <v>86.91607666015625</v>
+        <v>97.76809692382812</v>
       </c>
       <c r="F176">
-        <v>0</v>
+        <v>69431040</v>
       </c>
       <c r="G176">
-        <v>87.21369375187022</v>
+        <v>98.12840084866076</v>
       </c>
       <c r="H176">
-        <v>85.41163520812988</v>
+        <v>100.181058883667</v>
       </c>
       <c r="I176">
-        <v>87.20874277750652</v>
+        <v>98.94480387369792</v>
       </c>
       <c r="J176">
-        <v>95.34060176198348</v>
+        <v>95.88153135943089</v>
       </c>
       <c r="L176">
-        <v>49.37142513554699</v>
+        <v>48.37290898287412</v>
       </c>
       <c r="M176">
-        <v>47.9634962518417</v>
+        <v>49.8555241788217</v>
       </c>
     </row>
     <row r="177" spans="1:13">
@@ -6995,37 +7010,37 @@
         <v>189</v>
       </c>
       <c r="B177">
-        <v>86.88945007324219</v>
+        <v>97.78285980224609</v>
       </c>
       <c r="C177">
-        <v>88.13349914550781</v>
+        <v>97.94419097900391</v>
       </c>
       <c r="D177">
-        <v>86.14839172363281</v>
+        <v>97.0343780517578</v>
       </c>
       <c r="E177">
-        <v>87.82004547119141</v>
+        <v>97.82244873046876</v>
       </c>
       <c r="F177">
-        <v>41625856</v>
+        <v>0</v>
       </c>
       <c r="G177">
-        <v>87.26881663544486</v>
+        <v>98.10058701973421</v>
       </c>
       <c r="H177">
-        <v>85.62524528503418</v>
+        <v>100.0781078338623</v>
       </c>
       <c r="I177">
-        <v>87.03817876180013</v>
+        <v>99.06713562011718</v>
       </c>
       <c r="J177">
-        <v>95.2409917448869</v>
+        <v>95.90723887427907</v>
       </c>
       <c r="L177">
-        <v>53.43838801379991</v>
+        <v>48.59975908643471</v>
       </c>
       <c r="M177">
-        <v>50.52603324952353</v>
+        <v>49.99329564970511</v>
       </c>
     </row>
     <row r="178" spans="1:13">
@@ -7033,37 +7048,37 @@
         <v>190</v>
       </c>
       <c r="B178">
-        <v>87.82937622070312</v>
+        <v>97.83469390869141</v>
       </c>
       <c r="C178">
-        <v>88.26325988769531</v>
+        <v>99.68755340576172</v>
       </c>
       <c r="D178">
-        <v>86.78408050537109</v>
+        <v>97.57415771484376</v>
       </c>
       <c r="E178">
-        <v>86.96962738037109</v>
+        <v>99.19432830810548</v>
       </c>
       <c r="F178">
-        <v>0</v>
+        <v>134087424</v>
       </c>
       <c r="G178">
-        <v>87.24161761225633</v>
+        <v>98.20001804594978</v>
       </c>
       <c r="H178">
-        <v>85.79845581054687</v>
+        <v>100.0044811248779</v>
       </c>
       <c r="I178">
-        <v>86.85749435424805</v>
+        <v>99.1549700419108</v>
       </c>
       <c r="J178">
-        <v>95.13143724999266</v>
+        <v>95.95077648267413</v>
       </c>
       <c r="L178">
-        <v>49.25119621258862</v>
+        <v>54.30162048212305</v>
       </c>
       <c r="M178">
-        <v>48.12500879136255</v>
+        <v>53.46842252452274</v>
       </c>
     </row>
     <row r="179" spans="1:13">
@@ -7071,37 +7086,37 @@
         <v>191</v>
       </c>
       <c r="B179">
-        <v>86.97789001464844</v>
+        <v>99.17268371582033</v>
       </c>
       <c r="C179">
-        <v>92.10391998291016</v>
+        <v>101.1877059936523</v>
       </c>
       <c r="D179">
-        <v>86.97789001464844</v>
+        <v>98.50034332275391</v>
       </c>
       <c r="E179">
-        <v>92.10391998291016</v>
+        <v>101.1608963012695</v>
       </c>
       <c r="F179">
-        <v>276332416</v>
+        <v>16782592</v>
       </c>
       <c r="G179">
-        <v>87.68364510049759</v>
+        <v>98.46918879643339</v>
       </c>
       <c r="H179">
-        <v>86.1436264038086</v>
+        <v>99.9859115600586</v>
       </c>
       <c r="I179">
-        <v>86.82554550170899</v>
+        <v>99.33812510172525</v>
       </c>
       <c r="J179">
-        <v>95.09133768354124</v>
+        <v>96.01978469219195</v>
       </c>
       <c r="L179">
-        <v>66.8783479751912</v>
+        <v>61.23624349196529</v>
       </c>
       <c r="M179">
-        <v>60.36956455129045</v>
+        <v>57.97669630331509</v>
       </c>
     </row>
     <row r="180" spans="1:13">
@@ -7109,37 +7124,37 @@
         <v>192</v>
       </c>
       <c r="B180">
-        <v>92.07909393310548</v>
+        <v>101.1553039550781</v>
       </c>
       <c r="C180">
-        <v>92.51657867431641</v>
+        <v>102.1226577758789</v>
       </c>
       <c r="D180">
-        <v>90.32435607910156</v>
+        <v>100.0088882446289</v>
       </c>
       <c r="E180">
-        <v>92.50344848632812</v>
+        <v>101.9706344604492</v>
       </c>
       <c r="F180">
-        <v>62214528</v>
+        <v>124156672</v>
       </c>
       <c r="G180">
-        <v>88.121809044664</v>
+        <v>98.78750203861664</v>
       </c>
       <c r="H180">
-        <v>86.63903770446777</v>
+        <v>99.97581825256347</v>
       </c>
       <c r="I180">
-        <v>86.82534484863281</v>
+        <v>99.45686111450195</v>
       </c>
       <c r="J180">
-        <v>95.05706100543246</v>
+        <v>96.09860389442052</v>
       </c>
       <c r="L180">
-        <v>67.85576326220631</v>
+        <v>63.7820975985126</v>
       </c>
       <c r="M180">
-        <v>61.13826827169385</v>
+        <v>59.70772634081405</v>
       </c>
     </row>
     <row r="181" spans="1:13">
@@ -7147,37 +7162,37 @@
         <v>193</v>
       </c>
       <c r="B181">
-        <v>92.50344848632812</v>
+        <v>101.9513168334961</v>
       </c>
       <c r="C181">
-        <v>93.48607635498048</v>
+        <v>102.3764724731445</v>
       </c>
       <c r="D181">
-        <v>92.3838348388672</v>
+        <v>98.48928070068359</v>
       </c>
       <c r="E181">
-        <v>92.82528686523438</v>
+        <v>101.1495590209961</v>
       </c>
       <c r="F181">
-        <v>120376448</v>
+        <v>162791424</v>
       </c>
       <c r="G181">
-        <v>88.54939793744312</v>
+        <v>99.00223449156022</v>
       </c>
       <c r="H181">
-        <v>87.28543853759766</v>
+        <v>99.88831977844238</v>
       </c>
       <c r="I181">
-        <v>86.84167175292968</v>
+        <v>99.58716379801432</v>
       </c>
       <c r="J181">
-        <v>95.02750108304573</v>
+        <v>96.16550396232219</v>
       </c>
       <c r="L181">
-        <v>68.69300544403731</v>
+        <v>59.33659132763621</v>
       </c>
       <c r="M181">
-        <v>61.78137047188473</v>
+        <v>57.13757127246763</v>
       </c>
     </row>
     <row r="182" spans="1:13">
@@ -7185,37 +7200,37 @@
         <v>194</v>
       </c>
       <c r="B182">
-        <v>92.84475708007812</v>
+        <v>101.1588439941406</v>
       </c>
       <c r="C182">
-        <v>93.52867126464844</v>
+        <v>101.8523406982422</v>
       </c>
       <c r="D182">
-        <v>91.82784271240234</v>
+        <v>101.1588439941406</v>
       </c>
       <c r="E182">
-        <v>92.05516052246094</v>
+        <v>101.2697448730469</v>
       </c>
       <c r="F182">
-        <v>61391232</v>
+        <v>19507968</v>
       </c>
       <c r="G182">
-        <v>88.86810362699019</v>
+        <v>99.2083717989681</v>
       </c>
       <c r="H182">
-        <v>87.75545501708984</v>
+        <v>99.64113388061523</v>
       </c>
       <c r="I182">
-        <v>86.88087793986003</v>
+        <v>99.80549443562826</v>
       </c>
       <c r="J182">
-        <v>94.98813233389892</v>
+        <v>96.23310980219935</v>
       </c>
       <c r="L182">
-        <v>64.1920385352236</v>
+        <v>59.79800750334471</v>
       </c>
       <c r="M182">
-        <v>59.2544719097303</v>
+        <v>57.42645532842634</v>
       </c>
     </row>
   </sheetData>
